--- a/2015_-_Desenvolvimento_Estrate55.xlsx
+++ b/2015_-_Desenvolvimento_Estrate55.xlsx
@@ -72,9 +72,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="17" max="17" width="40.0" customWidth="true"/>
     <col min="18" max="18" width="40.0" customWidth="true"/>
     <col min="19" max="19" width="40.0" customWidth="true"/>
+    <col min="20" max="20" width="40.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -160,15 +160,20 @@
       </c>
       <c r="Q1" s="6" t="inlineStr">
         <is>
+          <t>Tempo de processamento efetivo</t>
+        </is>
+      </c>
+      <c r="R1" s="6" t="inlineStr">
+        <is>
           <t>Pedido</t>
         </is>
       </c>
-      <c r="R1" s="6" t="inlineStr">
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>Ação</t>
         </is>
       </c>
-      <c r="S1" s="6" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>Anexos</t>
         </is>
@@ -241,7 +246,10 @@
         <v>44299.47638888889</v>
       </c>
       <c r="P2"/>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="Q2" s="5" t="n">
+        <v>0.035416666666666666</v>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>07/04/2021 10:33 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -249,13 +257,13 @@
 07/04/2021 10:33...</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>07/04/2021 11:25 PAULO HENRIQUE BRASIL RIBEIRO: 
 Testado</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>07/04/2021 11:25 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -329,7 +337,10 @@
         <v>44301.563888888886</v>
       </c>
       <c r="P3"/>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="Q3" s="5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>08/04/2021 12:02 Atualizado pelo Sistema: 
 Cooperativa: 3054 - PAC: 00 - SICOOB CREDI-RURAL
@@ -337,7 +348,7 @@
 08/04/20...</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>09/04/2021 13:31 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -345,7 +356,7 @@
 Favor ave...</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="T3" s="1" t="inlineStr">
         <is>
           <t>09/04/2021 13:31 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -419,7 +430,10 @@
         <v>44305.50347222222</v>
       </c>
       <c r="P4"/>
-      <c r="Q4" s="1" t="inlineStr">
+      <c r="Q4" s="5" t="n">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
         <is>
           <t>12/04/2021 17:09 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -427,7 +441,7 @@
 12/04/2021 17:09...</t>
         </is>
       </c>
-      <c r="R4" s="1" t="inlineStr">
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>13/04/2021 12:04 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -435,7 +449,7 @@
 E...</t>
         </is>
       </c>
-      <c r="S4" s="1" t="inlineStr">
+      <c r="T4" s="1" t="inlineStr">
         <is>
           <t>13/04/2021 12:04 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -509,7 +523,10 @@
         <v>44319.37569444445</v>
       </c>
       <c r="P5"/>
-      <c r="Q5" s="1" t="inlineStr">
+      <c r="Q5" s="5" t="n">
+        <v>2.9881944444444444</v>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
         <is>
           <t>14/04/2021 09:17 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -517,14 +534,14 @@
 14/04/2021 09:17 G...</t>
         </is>
       </c>
-      <c r="R5" s="1" t="inlineStr">
+      <c r="S5" s="1" t="inlineStr">
         <is>
           <t>27/04/2021 08:59 PEDRO LEONARDO LONGHIN SILVA: 
 Prezada, segue em anexo o Mapeamento do processo de crédito.
 Espero ter ajuda...</t>
         </is>
       </c>
-      <c r="S5" s="1" t="inlineStr">
+      <c r="T5" s="1" t="inlineStr">
         <is>
           <t>27/04/2021 09:00 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
@@ -598,7 +615,10 @@
         <v>44320.35208333333</v>
       </c>
       <c r="P6"/>
-      <c r="Q6" s="1" t="inlineStr">
+      <c r="Q6" s="5" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
         <is>
           <t>16/04/2021 08:59 Atualizado pelo Sistema: 
 Cooperativa: 5024 - PAC: 00 - UNICENTRO NORTE GOIANO
@@ -606,14 +626,14 @@
 16/04/...</t>
         </is>
       </c>
-      <c r="R6" s="1" t="inlineStr">
+      <c r="S6" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 08:26 PAULO HENRIQUE BRASIL RIBEIRO: 
 ["Bom dia Paulo
 Todas as origens das contas relativas ao CDI, estão descrit...</t>
         </is>
       </c>
-      <c r="S6" s="1" t="inlineStr">
+      <c r="T6" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 08:26 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.attachment/16' style='vertical-align: text-bo...</t>
@@ -687,7 +707,10 @@
         <v>44327.67013888889</v>
       </c>
       <c r="P7"/>
-      <c r="Q7" s="1" t="inlineStr">
+      <c r="Q7" s="5" t="n">
+        <v>4.748611111111112</v>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
         <is>
           <t>16/04/2021 10:02 Atualizado pelo Sistema: 
 Cooperativa: 5024 - PAC: 00 - UNICENTRO NORTE GOIANO
@@ -695,13 +718,13 @@
 16/04/...</t>
         </is>
       </c>
-      <c r="R7" s="1" t="inlineStr">
+      <c r="S7" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 16:05 PAULO HENRIQUE BRASIL RIBEIRO: 
 ["A LCI ainda não está compondo a APN e portanto, não é alocada em nenhuma r...</t>
         </is>
       </c>
-      <c r="S7" s="1" t="inlineStr">
+      <c r="T7" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 16:05 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -775,7 +798,10 @@
         <v>44312.368055555555</v>
       </c>
       <c r="P8"/>
-      <c r="Q8" s="1" t="inlineStr">
+      <c r="Q8" s="5" t="n">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
         <is>
           <t>16/04/2021 17:21 Atualizado pelo Sistema: 
 Cooperativa: 5038 - PAC: 00 - UNIRBO
@@ -783,7 +809,7 @@
 16/04/2021 17:21 HEL...</t>
         </is>
       </c>
-      <c r="R8" s="1" t="inlineStr">
+      <c r="S8" s="1" t="inlineStr">
         <is>
           <t>20/04/2021 08:49 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -791,7 +817,7 @@
 Hel...</t>
         </is>
       </c>
-      <c r="S8" s="1" t="inlineStr">
+      <c r="T8" s="1" t="inlineStr">
         <is>
           <t>20/04/2021 08:49 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -869,7 +895,10 @@
           <t>4</t>
         </is>
       </c>
-      <c r="Q9" s="1" t="inlineStr">
+      <c r="Q9" s="5" t="n">
+        <v>1.2326388888888888</v>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
         <is>
           <t>20/04/2021 10:36 Atualizado pelo Sistema: 
 Cooperativa: 3343 - PAC: 00 - SICOOB EMPRESARIAL
@@ -877,7 +906,7 @@
 20/04/2...</t>
         </is>
       </c>
-      <c r="R9" s="1" t="inlineStr">
+      <c r="S9" s="1" t="inlineStr">
         <is>
           <t>26/04/2021 13:11 RAFAEL SILVA ARANTES: 
 ok
@@ -885,7 +914,7 @@
 ME - Planejamento e Desenvolvime...</t>
         </is>
       </c>
-      <c r="S9" s="1" t="inlineStr">
+      <c r="T9" s="1" t="inlineStr">
         <is>
           <t>24/04/2021 14:41 Portal de Servi&amp;ccedil;os do CCS  &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' s...</t>
@@ -963,7 +992,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="Q10" s="1" t="inlineStr">
+      <c r="Q10" s="5" t="n">
+        <v>0.2659722222222222</v>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
         <is>
           <t>22/04/2021 09:14 Atualizado pelo Sistema: 
 Cooperativa: 5014 - PAC: 00 - UNISAÚDE GOIÁS
@@ -971,7 +1003,7 @@
 22/04/2021...</t>
         </is>
       </c>
-      <c r="R10" s="1" t="inlineStr">
+      <c r="S10" s="1" t="inlineStr">
         <is>
           <t>23/04/2021 08:33 Daniela Ribeiro Martins: 
 Bom Dia Paulo,
@@ -979,7 +1011,7 @@
 Muito obrigada pelos esclar...</t>
         </is>
       </c>
-      <c r="S10" s="1" t="inlineStr">
+      <c r="T10" s="1" t="inlineStr">
         <is>
           <t>22/04/2021 15:38 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -1053,7 +1085,10 @@
         <v>44323.722766203704</v>
       </c>
       <c r="P11"/>
-      <c r="Q11" s="1" t="inlineStr">
+      <c r="Q11" s="5" t="n">
+        <v>1.1638888888888888</v>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
         <is>
           <t>22/04/2021 14:45 Atualizado pelo Sistema: 
 Cooperativa: 5014 - PAC: 00 - UNISAÚDE GOIÁS
@@ -1061,13 +1096,13 @@
 22/04/2021 1...</t>
         </is>
       </c>
-      <c r="R11" s="1" t="inlineStr">
+      <c r="S11" s="1" t="inlineStr">
         <is>
           <t>27/04/2021 16:10 PEDRO LEONARDO LONGHIN SILVA: 
 Segundo o estatuto social da 5014 - Unicidades, os Art. 09 e Art. 29 se compl...</t>
         </is>
       </c>
-      <c r="S11" s="1" t="inlineStr">
+      <c r="T11" s="1" t="inlineStr">
         <is>
           <t>27/04/2021 16:10 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.attachment/16' style='vertical-align: text-bot...</t>
@@ -1137,7 +1172,10 @@
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12" s="1" t="inlineStr">
+      <c r="Q12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
         <is>
           <t>26/04/2021 08:55 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -1145,8 +1183,8 @@
 26/04/2021 08:55 G...</t>
         </is>
       </c>
-      <c r="R12"/>
-      <c r="S12" s="1" t="inlineStr">
+      <c r="S12"/>
+      <c r="T12" s="1" t="inlineStr">
         <is>
           <t>26/04/2021 08:57 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -1220,7 +1258,10 @@
         <v>44334.69583333333</v>
       </c>
       <c r="P13"/>
-      <c r="Q13" s="1" t="inlineStr">
+      <c r="Q13" s="5" t="n">
+        <v>4.718055555555555</v>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
         <is>
           <t>26/04/2021 11:28 Atualizado pelo Sistema: 
 Cooperativa: 3350 - PAC: 00 - SICOOB COOPREM
@@ -1228,14 +1269,14 @@
 26/04/2021 11...</t>
         </is>
       </c>
-      <c r="R13" s="1" t="inlineStr">
+      <c r="S13" s="1" t="inlineStr">
         <is>
           <t>12/05/2021 16:41 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="S13" s="1" t="inlineStr">
+      <c r="T13" s="1" t="inlineStr">
         <is>
           <t>12/05/2021 16:42 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.attachment/16' style='vertical-align: text-bo...</t>
@@ -1309,7 +1350,10 @@
         <v>44326.40069444444</v>
       </c>
       <c r="P14"/>
-      <c r="Q14" s="1" t="inlineStr">
+      <c r="Q14" s="5" t="n">
+        <v>1.4715277777777778</v>
+      </c>
+      <c r="R14" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 10:16 Atualizado pelo Sistema: 
 Cooperativa: 3054 - PAC: 00 - SICOOB CREDI-RURAL
@@ -1317,14 +1361,14 @@
 28/04/20...</t>
         </is>
       </c>
-      <c r="R14" s="1" t="inlineStr">
+      <c r="S14" s="1" t="inlineStr">
         <is>
           <t>04/05/2021 09:35 PEDRO LEONARDO LONGHIN SILVA: 
 Prezada, espero que esteja tendo um ótimo dia!
 Afirmamos que o município de...</t>
         </is>
       </c>
-      <c r="S14" s="1" t="inlineStr">
+      <c r="T14" s="1" t="inlineStr">
         <is>
           <t>04/05/2021 09:36 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
@@ -1398,7 +1442,10 @@
         <v>44321.71388888889</v>
       </c>
       <c r="P15"/>
-      <c r="Q15" s="1" t="inlineStr">
+      <c r="Q15" s="5" t="n">
+        <v>2.1354166666666665</v>
+      </c>
+      <c r="R15" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 10:53 Atualizado pelo Sistema: 
 Cooperativa: 5014 - PAC: 00 - UNISAÚDE GOIÁS
@@ -1406,7 +1453,7 @@
 28/04/2021...</t>
         </is>
       </c>
-      <c r="R15" s="1" t="inlineStr">
+      <c r="S15" s="1" t="inlineStr">
         <is>
           <t>29/04/2021 17:07 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -1414,7 +1461,7 @@
 Encont...</t>
         </is>
       </c>
-      <c r="S15" s="1" t="inlineStr">
+      <c r="T15" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 17:08 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
@@ -1488,7 +1535,10 @@
         <v>44340.36944444444</v>
       </c>
       <c r="P16"/>
-      <c r="Q16" s="1" t="inlineStr">
+      <c r="Q16" s="5" t="n">
+        <v>5.020138888888889</v>
+      </c>
+      <c r="R16" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 14:31 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -1496,7 +1546,7 @@
 28/04/2021 14:31 MA...</t>
         </is>
       </c>
-      <c r="R16" s="1" t="inlineStr">
+      <c r="S16" s="1" t="inlineStr">
         <is>
           <t>18/05/2021 08:51 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -1504,7 +1554,7 @@
 "A sol...</t>
         </is>
       </c>
-      <c r="S16" s="1" t="inlineStr">
+      <c r="T16" s="1" t="inlineStr">
         <is>
           <t>18/05/2021 08:51 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -1582,7 +1632,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="Q17" s="1" t="inlineStr">
+      <c r="Q17" s="5" t="n">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="R17" s="1" t="inlineStr">
         <is>
           <t>30/04/2021 11:06 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -1590,7 +1643,7 @@
 30/04/2021 11:06 D...</t>
         </is>
       </c>
-      <c r="R17" s="1" t="inlineStr">
+      <c r="S17" s="1" t="inlineStr">
         <is>
           <t>03/05/2021 09:24 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -1598,7 +1651,7 @@
 Adicionei...</t>
         </is>
       </c>
-      <c r="S17" s="1" t="inlineStr">
+      <c r="T17" s="1" t="inlineStr">
         <is>
           <t>03/05/2021 09:24 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -1672,7 +1725,10 @@
         <v>44342.402083333334</v>
       </c>
       <c r="P18"/>
-      <c r="Q18" s="1" t="inlineStr">
+      <c r="Q18" s="5" t="n">
+        <v>4.824305555555555</v>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
         <is>
           <t>03/05/2021 10:52 Atualizado pelo Sistema: 
 Cooperativa: 3246 - PAC: 00 - SICOOB CREDSEGURO - GO
@@ -1680,14 +1736,14 @@
 03/...</t>
         </is>
       </c>
-      <c r="R18" s="1" t="inlineStr">
+      <c r="S18" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 09:39 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)!...</t>
         </is>
       </c>
-      <c r="S18" s="1" t="inlineStr">
+      <c r="T18" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 09:39 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.attachment/16' style='vertical-align: text-bo...</t>
@@ -1761,7 +1817,10 @@
         <v>44327.36736111111</v>
       </c>
       <c r="P19"/>
-      <c r="Q19" s="1" t="inlineStr">
+      <c r="Q19" s="5" t="n">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="R19" s="1" t="inlineStr">
         <is>
           <t>04/05/2021 14:52 Atualizado pelo Sistema: 
 Cooperativa: 3058 - PAC: 00 - SICOOB CREDIGOIÁS
@@ -1769,14 +1828,14 @@
 04/05/2...</t>
         </is>
       </c>
-      <c r="R19" s="1" t="inlineStr">
+      <c r="S19" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 08:48 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="S19" s="1" t="inlineStr">
+      <c r="T19" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 08:48 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -1850,7 +1909,10 @@
         <v>44328.70416666667</v>
       </c>
       <c r="P20"/>
-      <c r="Q20" s="1" t="inlineStr">
+      <c r="Q20" s="5" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="R20" s="1" t="inlineStr">
         <is>
           <t>06/05/2021 15:05 Atualizado pelo Sistema: 
 Cooperativa: 3064 - PAC: 00 - SICOOB GOIÂNIA
@@ -1858,14 +1920,14 @@
 06/05/2021 15...</t>
         </is>
       </c>
-      <c r="R20" s="1" t="inlineStr">
+      <c r="S20" s="1" t="inlineStr">
         <is>
           <t>06/05/2021 16:53 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="S20" s="1" t="inlineStr">
+      <c r="T20" s="1" t="inlineStr">
         <is>
           <t>06/05/2021 16:53 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -1939,7 +2001,10 @@
         <v>44340.44930555556</v>
       </c>
       <c r="P21"/>
-      <c r="Q21" s="1" t="inlineStr">
+      <c r="Q21" s="5" t="n">
+        <v>1.9784722222222222</v>
+      </c>
+      <c r="R21" s="1" t="inlineStr">
         <is>
           <t>10/05/2021 17:17 Atualizado pelo Sistema: 
 Cooperativa: 3246 - PAC: 00 - SICOOB CREDSEGURO - GO
@@ -1947,14 +2012,14 @@
 10/0...</t>
         </is>
       </c>
-      <c r="R21" s="1" t="inlineStr">
+      <c r="S21" s="1" t="inlineStr">
         <is>
           <t>18/05/2021 10:46 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! Es...</t>
         </is>
       </c>
-      <c r="S21"/>
+      <c r="T21"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -2023,7 +2088,10 @@
         <v>44334.49236111111</v>
       </c>
       <c r="P22"/>
-      <c r="Q22" s="1" t="inlineStr">
+      <c r="Q22" s="5" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="R22" s="1" t="inlineStr">
         <is>
           <t>12/05/2021 11:21 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -2031,14 +2099,14 @@
 12/05/2021 11:21...</t>
         </is>
       </c>
-      <c r="R22" s="1" t="inlineStr">
+      <c r="S22" s="1" t="inlineStr">
         <is>
           <t>12/05/2021 11:46 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="S22" s="1" t="inlineStr">
+      <c r="T22" s="1" t="inlineStr">
         <is>
           <t>12/05/2021 11:46 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -2112,7 +2180,10 @@
         <v>44342.69861111111</v>
       </c>
       <c r="P23"/>
-      <c r="Q23" s="1" t="inlineStr">
+      <c r="Q23" s="5" t="n">
+        <v>2.868055555555556</v>
+      </c>
+      <c r="R23" s="1" t="inlineStr">
         <is>
           <t>17/05/2021 10:57 Atualizado pelo Sistema: 
 Cooperativa: 3054 - PAC: 00 - SICOOB CREDI-RURAL
@@ -2120,14 +2191,14 @@
 17/05/2021...</t>
         </is>
       </c>
-      <c r="R23" s="1" t="inlineStr">
+      <c r="S23" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 16:46 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="S23" s="1" t="inlineStr">
+      <c r="T23" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 16:46 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
@@ -2201,7 +2272,10 @@
         <v>44348.646527777775</v>
       </c>
       <c r="P24"/>
-      <c r="Q24" s="1" t="inlineStr">
+      <c r="Q24" s="5" t="n">
+        <v>2.2722222222222226</v>
+      </c>
+      <c r="R24" s="1" t="inlineStr">
         <is>
           <t>18/05/2021 14:57 Atualizado pelo Sistema: 
 Cooperativa: 5631 - PAC: 00 - UNISAÚDE SUDESTE
@@ -2209,7 +2283,7 @@
 18/05/2021 14...</t>
         </is>
       </c>
-      <c r="R24" s="1" t="inlineStr">
+      <c r="S24" s="1" t="inlineStr">
         <is>
           <t>25/05/2021 09:13 FERNANDA DA SILVA RAMOS: 
 Segue retorno do INNOR.
@@ -2217,7 +2291,7 @@
 Prezada,...</t>
         </is>
       </c>
-      <c r="S24" s="1" t="inlineStr">
+      <c r="T24" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 15:30 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
@@ -2291,7 +2365,10 @@
         <v>44342.70208333333</v>
       </c>
       <c r="P25"/>
-      <c r="Q25" s="1" t="inlineStr">
+      <c r="Q25" s="5" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="R25" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 14:51 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -2299,14 +2376,14 @@
 20/05/2021 14:51 Th...</t>
         </is>
       </c>
-      <c r="R25" s="1" t="inlineStr">
+      <c r="S25" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 16:51 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezado Thiago!...</t>
         </is>
       </c>
-      <c r="S25" s="1" t="inlineStr">
+      <c r="T25" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 16:51 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -2380,7 +2457,10 @@
         <v>44348.688888888886</v>
       </c>
       <c r="P26"/>
-      <c r="Q26" s="1" t="inlineStr">
+      <c r="Q26" s="5" t="n">
+        <v>1.1180555555555556</v>
+      </c>
+      <c r="R26" s="1" t="inlineStr">
         <is>
           <t>21/05/2021 16:40 Atualizado pelo Sistema: 
 Cooperativa: 3055 - PAC: 00 - SICOOB COOPERCRED
@@ -2388,13 +2468,13 @@
 21/05/2021...</t>
         </is>
       </c>
-      <c r="R26" s="1" t="inlineStr">
+      <c r="S26" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 16:30 PEDRO LEONARDO LONGHIN SILVA: 
 Prezado Marcos, conforme alinhado com o Cacio, foi visto que alguns Pleitos d...</t>
         </is>
       </c>
-      <c r="S26" s="1" t="inlineStr">
+      <c r="T26" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 16:30 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
@@ -2468,7 +2548,10 @@
         <v>44348.643055555556</v>
       </c>
       <c r="P27"/>
-      <c r="Q27" s="1" t="inlineStr">
+      <c r="Q27" s="5" t="n">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="R27" s="1" t="inlineStr">
         <is>
           <t>25/05/2021 15:56 MONICA DA CONCEIÇAO GOMES: 
 Descrição:
@@ -2476,13 +2559,13 @@
 Venho por meio deste solicitar que seja efetuado a mig...</t>
         </is>
       </c>
-      <c r="R27" s="1" t="inlineStr">
+      <c r="S27" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 15:25 PEDRO LEONARDO LONGHIN SILVA: 
 Conforme informado no chamado I2105-229361, que consta com o mesmo conteúdo p...</t>
         </is>
       </c>
-      <c r="S27" s="1" t="inlineStr">
+      <c r="T27" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 15:25 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
@@ -2556,7 +2639,10 @@
         <v>44348.60208333333</v>
       </c>
       <c r="P28"/>
-      <c r="Q28" s="1" t="inlineStr">
+      <c r="Q28" s="5" t="n">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="R28" s="1" t="inlineStr">
         <is>
           <t>25/05/2021 16:19 Atualizado pelo Sistema: 
 Cooperativa: 5631 - PAC: 00 - UNISAÚDE SUDESTE
@@ -2564,14 +2650,14 @@
 25/05/2021...</t>
         </is>
       </c>
-      <c r="R28" s="1" t="inlineStr">
+      <c r="S28" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 14:25 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Usuário incluído no grupo...</t>
         </is>
       </c>
-      <c r="S28" s="1" t="inlineStr">
+      <c r="T28" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 14:25 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -2645,7 +2731,10 @@
         <v>44353.65138888889</v>
       </c>
       <c r="P29"/>
-      <c r="Q29" s="1" t="inlineStr">
+      <c r="Q29" s="5" t="n">
+        <v>1.2881944444444444</v>
+      </c>
+      <c r="R29" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 11:42 Atualizado pelo Sistema: 
 Cooperativa: 3246 - PAC: 00 - SICOOB CREDSEGURO - GO
@@ -2653,14 +2742,14 @@
 26/05/...</t>
         </is>
       </c>
-      <c r="R29" s="1" t="inlineStr">
+      <c r="S29" s="1" t="inlineStr">
         <is>
           <t>31/05/2021 15:37 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
  Certo, Hellber. Realmente...</t>
         </is>
       </c>
-      <c r="S29" s="1" t="inlineStr">
+      <c r="T29" s="1" t="inlineStr">
         <is>
           <t>31/05/2021 15:37 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -2738,7 +2827,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="Q30" s="1" t="inlineStr">
+      <c r="Q30" s="5" t="n">
+        <v>1.0895833333333333</v>
+      </c>
+      <c r="R30" s="1" t="inlineStr">
         <is>
           <t>28/05/2021 10:49 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -2746,14 +2838,14 @@
 28/05/2021 10:49...</t>
         </is>
       </c>
-      <c r="R30" s="1" t="inlineStr">
+      <c r="S30" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 09:58 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezado! Estimo que esteja bem.
 Segue em anexo dois arquivos. Um...</t>
         </is>
       </c>
-      <c r="S30" s="1" t="inlineStr">
+      <c r="T30" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 09:58 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -2827,7 +2919,10 @@
         <v>44361.433333333334</v>
       </c>
       <c r="P31"/>
-      <c r="Q31" s="1" t="inlineStr">
+      <c r="Q31" s="5" t="n">
+        <v>3.1083333333333334</v>
+      </c>
+      <c r="R31" s="1" t="inlineStr">
         <is>
           <t>31/05/2021 16:48 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -2835,7 +2930,7 @@
 31/05/...</t>
         </is>
       </c>
-      <c r="R31" s="1" t="inlineStr">
+      <c r="S31" s="1" t="inlineStr">
         <is>
           <t>08/06/2021 10:24 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezados(as)!
@@ -2843,7 +2938,7 @@
 Na...</t>
         </is>
       </c>
-      <c r="S31" s="1" t="inlineStr">
+      <c r="T31" s="1" t="inlineStr">
         <is>
           <t>14/06/2021 10:24 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
@@ -2917,7 +3012,10 @@
         <v>44367.59583333333</v>
       </c>
       <c r="P32"/>
-      <c r="Q32" s="1" t="inlineStr">
+      <c r="Q32" s="5" t="n">
+        <v>3.027083333333333</v>
+      </c>
+      <c r="R32" s="1" t="inlineStr">
         <is>
           <t>01/06/2021 13:37 Atualizado pelo Sistema: 
 Cooperativa: 5038 - PAC: 00 - UNIRBO
@@ -2925,14 +3023,14 @@
 01/06/2021 13:37 GABR...</t>
         </is>
       </c>
-      <c r="R32" s="1" t="inlineStr">
+      <c r="S32" s="1" t="inlineStr">
         <is>
           <t>14/06/2021 14:17 PAULO HENRIQUE BRASIL RIBEIRO: 
 Certo, Gabriel! Agradeço imensamente pelo retorno.
 Caso queira estarei dispo...</t>
         </is>
       </c>
-      <c r="S32" s="1" t="inlineStr">
+      <c r="T32" s="1" t="inlineStr">
         <is>
           <t>14/06/2021 14:17 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -3002,7 +3100,10 @@
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33" s="1" t="inlineStr">
+      <c r="Q33" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:29 Atualizado pelo Sistema: 
 Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
@@ -3010,8 +3111,8 @@
 02/06/2021 1...</t>
         </is>
       </c>
-      <c r="R33"/>
-      <c r="S33" s="1" t="inlineStr">
+      <c r="S33"/>
+      <c r="T33" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:32 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -3081,7 +3182,10 @@
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="Q34" s="1" t="inlineStr">
+      <c r="Q34" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:32 Atualizado pelo Sistema: 
 Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
@@ -3089,8 +3193,8 @@
 02/06/2021 1...</t>
         </is>
       </c>
-      <c r="R34"/>
-      <c r="S34" s="1" t="inlineStr">
+      <c r="S34"/>
+      <c r="T34" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:35 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -3160,7 +3264,10 @@
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
-      <c r="Q35" s="1" t="inlineStr">
+      <c r="Q35" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:33 Atualizado pelo Sistema: 
 Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
@@ -3168,8 +3275,8 @@
 02/06/2021 1...</t>
         </is>
       </c>
-      <c r="R35"/>
-      <c r="S35" s="1" t="inlineStr">
+      <c r="S35"/>
+      <c r="T35" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:36 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -3239,7 +3346,10 @@
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="Q36" s="1" t="inlineStr">
+      <c r="Q36" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R36" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:35 Atualizado pelo Sistema: 
 Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
@@ -3247,8 +3357,8 @@
 02/06/2021 1...</t>
         </is>
       </c>
-      <c r="R36"/>
-      <c r="S36" s="1" t="inlineStr">
+      <c r="S36"/>
+      <c r="T36" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:37 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -3322,7 +3432,10 @@
         <v>44360.385416666664</v>
       </c>
       <c r="P37"/>
-      <c r="Q37" s="1" t="inlineStr">
+      <c r="Q37" s="5" t="n">
+        <v>0.4756944444444445</v>
+      </c>
+      <c r="R37" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 15:48 Atualizado pelo Sistema: 
 Cooperativa: 5018 - PAC: 00 - SICOOB UNIRONDÔNIA
@@ -3330,14 +3443,14 @@
 02/06/2021...</t>
         </is>
       </c>
-      <c r="R37" s="1" t="inlineStr">
+      <c r="S37" s="1" t="inlineStr">
         <is>
           <t>07/06/2021 09:10 PEDRO LEONARDO LONGHIN SILVA: 
 Olá Priscila, bom dia!
 Tentei o contato via teams no dia 04 de junho para con...</t>
         </is>
       </c>
-      <c r="S37" s="1" t="inlineStr">
+      <c r="T37" s="1" t="inlineStr">
         <is>
           <t>07/06/2021 09:14 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
@@ -3407,7 +3520,10 @@
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
-      <c r="Q38" s="1" t="inlineStr">
+      <c r="Q38" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R38" s="1" t="inlineStr">
         <is>
           <t>07/06/2021 14:45 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -3415,14 +3531,14 @@
 07/06/...</t>
         </is>
       </c>
-      <c r="R38" s="1" t="inlineStr">
+      <c r="S38" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 08:58 PAULO HENRIQUE BRASIL RIBEIRO: 
 Bom dia, prezada Julyana.
 A data de relacionamento é vinculada a ativação d...</t>
         </is>
       </c>
-      <c r="S38" s="1" t="inlineStr">
+      <c r="T38" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 08:58 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -3496,7 +3612,10 @@
         <v>44362.41388888889</v>
       </c>
       <c r="P39"/>
-      <c r="Q39" s="1" t="inlineStr">
+      <c r="Q39" s="5" t="n">
+        <v>0.3229166666666667</v>
+      </c>
+      <c r="R39" s="1" t="inlineStr">
         <is>
           <t>08/06/2021 11:08 Atualizado pelo Sistema: 
 Cooperativa: 3350 - PAC: 00 - SICOOB COOPREM
@@ -3504,14 +3623,14 @@
 08/06/2021 11...</t>
         </is>
       </c>
-      <c r="R39" s="1" t="inlineStr">
+      <c r="S39" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 09:54 PAULO HENRIQUE BRASIL RIBEIRO: 
 . 10 maiores devedores atualizados por dia;
        Aba Carteira estratificad...</t>
         </is>
       </c>
-      <c r="S39" s="1" t="inlineStr">
+      <c r="T39" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 09:54 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -3585,7 +3704,10 @@
         <v>44369.37291666667</v>
       </c>
       <c r="P40"/>
-      <c r="Q40" s="1" t="inlineStr">
+      <c r="Q40" s="5" t="n">
+        <v>0.3590277777777778</v>
+      </c>
+      <c r="R40" s="1" t="inlineStr">
         <is>
           <t>15/06/2021 09:23 Atualizado pelo Sistema: 
 Cooperativa: 5018 - PAC: 00 - SICOOB UNIRONDÔNIA
@@ -3593,7 +3715,7 @@
 15/06/2021...</t>
         </is>
       </c>
-      <c r="R40" s="1" t="inlineStr">
+      <c r="S40" s="1" t="inlineStr">
         <is>
           <t>16/06/2021 08:56 PAULO HENRIQUE BRASIL RIBEIRO: 
 Perfil de autor concedido no Sisbr Analítico.
@@ -3601,7 +3723,7 @@
 Paulo H. B....</t>
         </is>
       </c>
-      <c r="S40" s="1" t="inlineStr">
+      <c r="T40" s="1" t="inlineStr">
         <is>
           <t>16/06/2021 08:56 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -3675,7 +3797,10 @@
         <v>44377.63402777778</v>
       </c>
       <c r="P41"/>
-      <c r="Q41" s="1" t="inlineStr">
+      <c r="Q41" s="5" t="n">
+        <v>3.961111111111111</v>
+      </c>
+      <c r="R41" s="1" t="inlineStr">
         <is>
           <t>16/06/2021 10:09 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -3683,14 +3808,14 @@
 16/06/...</t>
         </is>
       </c>
-      <c r="R41" s="1" t="inlineStr">
+      <c r="S41" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 14:49 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, João.
 Repassei a informação e a equipe já efetuou alguns ajustes...</t>
         </is>
       </c>
-      <c r="S41" s="1" t="inlineStr">
+      <c r="T41" s="1" t="inlineStr">
         <is>
           <t>30/06/2021 15:13 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
@@ -3764,7 +3889,10 @@
         <v>44377.67291666667</v>
       </c>
       <c r="P42"/>
-      <c r="Q42" s="1" t="inlineStr">
+      <c r="Q42" s="5" t="n">
+        <v>2.2652777777777775</v>
+      </c>
+      <c r="R42" s="1" t="inlineStr">
         <is>
           <t>16/06/2021 15:45 Atualizado pelo Sistema: 
 Cooperativa: 3055 - PAC: 00 - SICOOB COOPERCRED
@@ -3772,14 +3900,14 @@
 16/06/2021...</t>
         </is>
       </c>
-      <c r="R42" s="1" t="inlineStr">
+      <c r="S42" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 16:08 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezado Marcos! 
 Segue o link do relatório com  da proposta de s...</t>
         </is>
       </c>
-      <c r="S42" s="1" t="inlineStr">
+      <c r="T42" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 16:08 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -3853,7 +3981,10 @@
         <v>44374.461805555555</v>
       </c>
       <c r="P43"/>
-      <c r="Q43" s="1" t="inlineStr">
+      <c r="Q43" s="5" t="n">
+        <v>0.7590277777777777</v>
+      </c>
+      <c r="R43" s="1" t="inlineStr">
         <is>
           <t>17/06/2021 10:37 Atualizado pelo Sistema: 
 Cooperativa: 3064 - PAC: 00 - SICOOB GOIÂNIA
@@ -3861,14 +3992,14 @@
 17/06/2021 1...</t>
         </is>
       </c>
-      <c r="R43" s="1" t="inlineStr">
+      <c r="S43" s="1" t="inlineStr">
         <is>
           <t>21/06/2021 11:04 Kaique Ferreira Henrique de Souza: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Prezados(as), bom dia...</t>
         </is>
       </c>
-      <c r="S43" s="1" t="inlineStr">
+      <c r="T43" s="1" t="inlineStr">
         <is>
           <t>21/06/2021 11:05 Kaique Ferreira Henrique de Souza: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bott...</t>
@@ -3942,7 +4073,10 @@
         <v>44378.46875</v>
       </c>
       <c r="P44"/>
-      <c r="Q44" s="1" t="inlineStr">
+      <c r="Q44" s="5" t="n">
+        <v>2.2104166666666667</v>
+      </c>
+      <c r="R44" s="1" t="inlineStr">
         <is>
           <t>17/06/2021 12:11 Atualizado pelo Sistema: 
 Cooperativa: 3054 - PAC: 00 - SICOOB CREDI-RURAL
@@ -3950,14 +4084,14 @@
 17/06/202...</t>
         </is>
       </c>
-      <c r="R44" s="1" t="inlineStr">
+      <c r="S44" s="1" t="inlineStr">
         <is>
           <t>25/06/2021 11:14 PAULO HENRIQUE BRASIL RIBEIRO: 
 Bom dia, Vitória!
 - Essa ação podemos fazer por rateio/produtos selecionand...</t>
         </is>
       </c>
-      <c r="S44" s="1" t="inlineStr">
+      <c r="T44" s="1" t="inlineStr">
         <is>
           <t>25/06/2021 11:14 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -4031,7 +4165,10 @@
         <v>44374.62847222222</v>
       </c>
       <c r="P45"/>
-      <c r="Q45" s="1" t="inlineStr">
+      <c r="Q45" s="5" t="n">
+        <v>1.8361111111111112</v>
+      </c>
+      <c r="R45" s="1" t="inlineStr">
         <is>
           <t>21/06/2021 09:56 Atualizado pelo Sistema: 
 Cooperativa: 5014 - PAC: 00 - UNISAÚDE GOIÁS
@@ -4039,14 +4176,14 @@
 21/06/2021...</t>
         </is>
       </c>
-      <c r="R45" s="1" t="inlineStr">
+      <c r="S45" s="1" t="inlineStr">
         <is>
           <t>21/06/2021 15:05 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezados(as)! Estimo que estejam todos bem.
 No Armazém Cliente e...</t>
         </is>
       </c>
-      <c r="S45" s="1" t="inlineStr">
+      <c r="T45" s="1" t="inlineStr">
         <is>
           <t>27/06/2021 15:05 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
@@ -4120,7 +4257,10 @@
         <v>44376.37013888889</v>
       </c>
       <c r="P46"/>
-      <c r="Q46" s="1" t="inlineStr">
+      <c r="Q46" s="5" t="n">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="R46" s="1" t="inlineStr">
         <is>
           <t>21/06/2021 14:14 Atualizado pelo Sistema: 
 Cooperativa: 3343 - PAC: 00 - SICOOB EMPRESARIAL
@@ -4128,14 +4268,14 @@
 21/06/2021...</t>
         </is>
       </c>
-      <c r="R46" s="1" t="inlineStr">
+      <c r="S46" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 08:53 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezados(as)! Estimo que estejam todos bem.
 Hívyna, disponibiliz...</t>
         </is>
       </c>
-      <c r="S46" s="1" t="inlineStr">
+      <c r="T46" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 08:53 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -4209,7 +4349,10 @@
         <v>44376.675</v>
       </c>
       <c r="P47"/>
-      <c r="Q47" s="1" t="inlineStr">
+      <c r="Q47" s="5" t="n">
+        <v>0.4131944444444445</v>
+      </c>
+      <c r="R47" s="1" t="inlineStr">
         <is>
           <t>22/06/2021 15:15 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -4217,14 +4360,14 @@
 22/06/...</t>
         </is>
       </c>
-      <c r="R47" s="1" t="inlineStr">
+      <c r="S47" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 16:11 Kaique Ferreira Henrique de Souza: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Prezados(as), boa tarde...</t>
         </is>
       </c>
-      <c r="S47" s="1" t="inlineStr">
+      <c r="T47" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 16:11 Kaique Ferreira Henrique de Souza: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bott...</t>
@@ -4294,7 +4437,10 @@
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48" s="1" t="inlineStr">
+      <c r="Q48" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R48" s="1" t="inlineStr">
         <is>
           <t>22/06/2021 15:17 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -4302,8 +4448,8 @@
 22/06/...</t>
         </is>
       </c>
-      <c r="R48"/>
-      <c r="S48" s="1" t="inlineStr">
+      <c r="S48"/>
+      <c r="T48" s="1" t="inlineStr">
         <is>
           <t>22/06/2021 15:19 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -4373,7 +4519,10 @@
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
-      <c r="Q49" s="1" t="inlineStr">
+      <c r="Q49" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R49" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 10:50 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -4381,8 +4530,8 @@
 23/06/...</t>
         </is>
       </c>
-      <c r="R49"/>
-      <c r="S49" s="1" t="inlineStr">
+      <c r="S49"/>
+      <c r="T49" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 10:52 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -4452,7 +4601,10 @@
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
-      <c r="Q50" s="1" t="inlineStr">
+      <c r="Q50" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R50" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 10:54 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -4460,8 +4612,8 @@
 23/06/...</t>
         </is>
       </c>
-      <c r="R50"/>
-      <c r="S50" s="1" t="inlineStr">
+      <c r="S50"/>
+      <c r="T50" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 10:55 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -4531,7 +4683,10 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
-      <c r="Q51" s="1" t="inlineStr">
+      <c r="Q51" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R51" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 10:57 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -4539,8 +4694,8 @@
 23/06/...</t>
         </is>
       </c>
-      <c r="R51"/>
-      <c r="S51" s="1" t="inlineStr">
+      <c r="S51"/>
+      <c r="T51" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 10:59 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -4610,7 +4765,10 @@
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
-      <c r="Q52" s="1" t="inlineStr">
+      <c r="Q52" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R52" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 10:59 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -4618,8 +4776,8 @@
 23/06/...</t>
         </is>
       </c>
-      <c r="R52"/>
-      <c r="S52" s="1" t="inlineStr">
+      <c r="S52"/>
+      <c r="T52" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 11:00 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -4689,7 +4847,10 @@
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
-      <c r="Q53" s="1" t="inlineStr">
+      <c r="Q53" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 10:59 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -4697,8 +4858,8 @@
 23/06/...</t>
         </is>
       </c>
-      <c r="R53"/>
-      <c r="S53" s="1" t="inlineStr">
+      <c r="S53"/>
+      <c r="T53" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 11:02 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -4776,7 +4937,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="Q54" s="1" t="inlineStr">
+      <c r="Q54" s="5" t="n">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="R54" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 15:49 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -4784,14 +4948,14 @@
 23/06/2021 15:49...</t>
         </is>
       </c>
-      <c r="R54" s="1" t="inlineStr">
+      <c r="S54" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 14:44 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, Leandro!
 Conforme você notificou via Teams esses números que man...</t>
         </is>
       </c>
-      <c r="S54" s="1" t="inlineStr">
+      <c r="T54" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 12:17 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -4865,7 +5029,10 @@
         <v>44382.55138888889</v>
       </c>
       <c r="P55"/>
-      <c r="Q55" s="1" t="inlineStr">
+      <c r="Q55" s="5" t="n">
+        <v>1.3583333333333334</v>
+      </c>
+      <c r="R55" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 16:37 Atualizado pelo Sistema: 
 Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
@@ -4873,7 +5040,7 @@
 23/06/2021 16...</t>
         </is>
       </c>
-      <c r="R55" s="1" t="inlineStr">
+      <c r="S55" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 13:13 PAULO HENRIQUE BRASIL RIBEIRO: 
 Troca do perfil autor realizada no Sisbr Analítico.
@@ -4881,7 +5048,7 @@
 25/06/2...</t>
         </is>
       </c>
-      <c r="S55" s="1" t="inlineStr">
+      <c r="T55" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 13:13 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -4959,7 +5126,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="Q56" s="1" t="inlineStr">
+      <c r="Q56" s="5" t="n">
+        <v>2.774305555555556</v>
+      </c>
+      <c r="R56" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 17:01 Atualizado pelo Sistema: 
 Cooperativa: 5038 - PAC: 00 - UNIRBO
@@ -4967,14 +5137,14 @@
 24/06/2021 17:01 Nayar...</t>
         </is>
       </c>
-      <c r="R56" s="1" t="inlineStr">
+      <c r="S56" s="1" t="inlineStr">
         <is>
           <t>06/07/2021 10:16 PAULO HENRIQUE BRASIL RIBEIRO: 
 Bom dia, Nayara!
 Temos essa colunas que podem ser adicionados no relatório....</t>
         </is>
       </c>
-      <c r="S56" s="1" t="inlineStr">
+      <c r="T56" s="1" t="inlineStr">
         <is>
           <t>06/07/2021 10:16 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -5052,7 +5222,10 @@
           <t>5</t>
         </is>
       </c>
-      <c r="Q57" s="1" t="inlineStr">
+      <c r="Q57" s="5" t="n">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="R57" s="1" t="inlineStr">
         <is>
           <t>28/06/2021 11:06 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -5060,7 +5233,7 @@
 28/06/2021 11:06...</t>
         </is>
       </c>
-      <c r="R57" s="1" t="inlineStr">
+      <c r="S57" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 09:55 LEANDRO DO PRADO ASSUNCAO: 
 Muito Obrigado!
@@ -5068,7 +5241,7 @@
 Boa tarde, Lea...</t>
         </is>
       </c>
-      <c r="S57" s="1" t="inlineStr">
+      <c r="T57" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 09:55 Portal de Servi&amp;ccedil;os do CCS  &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' s...</t>
@@ -5140,14 +5313,17 @@
       </c>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" s="1" t="inlineStr">
+      <c r="Q58" s="5" t="n">
+        <v>3.5909722222222222</v>
+      </c>
+      <c r="R58" s="1" t="inlineStr">
         <is>
           <t>28/06/2021 11:42 ANGELICA SOUSA SILVA GONTIJO: 
 Descrição:
 - Queria solicitar a transferência temporária do meu acesso SISBR...</t>
         </is>
       </c>
-      <c r="R58" s="1" t="inlineStr">
+      <c r="S58" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 16:24 PAULO HENRIQUE BRASIL RIBEIRO: 
 "Prezados,
@@ -5155,7 +5331,7 @@
 Atenciosament...</t>
         </is>
       </c>
-      <c r="S58" s="1" t="inlineStr">
+      <c r="T58" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 16:54 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -5175,7 +5351,7 @@
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>Alterado pelo solicitante</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
@@ -5194,7 +5370,7 @@
         </is>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5216,16 +5392,21 @@
       </c>
       <c r="L59" s="6" t="inlineStr">
         <is>
-          <t>Respondido</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="M59" s="3" t="n">
         <v>44376.37174768518</v>
       </c>
-      <c r="N59"/>
+      <c r="N59" s="3" t="n">
+        <v>44389.711805555555</v>
+      </c>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59" s="1" t="inlineStr">
+      <c r="Q59" s="5" t="n">
+        <v>3.711805555555556</v>
+      </c>
+      <c r="R59" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 08:55 Raul Osorio Marques Lacerda: 
 Descrição:
@@ -5233,17 +5414,17 @@
 Solicito a transferência da licença do Sisbr analítico...</t>
         </is>
       </c>
-      <c r="R59" s="1" t="inlineStr">
-        <is>
-          <t>08/07/2021 08:43 Raul Osorio Marques Lacerda: 
-Prezado, bom dia!
-Nesse sentido, qual é o procedimento para recuperarmos a li...</t>
-        </is>
-      </c>
       <c r="S59" s="1" t="inlineStr">
         <is>
-          <t>08/07/2021 08:43 Portal de Servi&amp;ccedil;os do CCS  &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
-&lt;img src='/icons/progresstrail.mail/16' s...</t>
+          <t>12/07/2021 17:07 PAULO HENRIQUE BRASIL RIBEIRO: 
+Boa tarde, Raul.
+No momento não é possível, pois o CCS não dispõe de licenç...</t>
+        </is>
+      </c>
+      <c r="T59" s="1" t="inlineStr">
+        <is>
+          <t>12/07/2021 17:07 PAULO HENRIQUE BRASIL RIBEIRO: 
+&lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5491,10 @@
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
-      <c r="Q60" s="1" t="inlineStr">
+      <c r="Q60" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R60" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 11:11 Atualizado pelo Sistema: 
 Cooperativa: 5631 - PAC: 00 - UNISAÚDE SUDESTE
@@ -5318,14 +5502,14 @@
 29/06/2021...</t>
         </is>
       </c>
-      <c r="R60" s="1" t="inlineStr">
+      <c r="S60" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 12:05 MONICA DA CONCEIÇAO GOMES: 
 Segue em anexo alista das sobras não creditadas,
 06/07/2021 08:20 PAULO HENRIQU...</t>
         </is>
       </c>
-      <c r="S60" s="1" t="inlineStr">
+      <c r="T60" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 12:05 Portal de Servi&amp;ccedil;os do CCS  &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' s...</t>
@@ -5397,7 +5581,10 @@
       </c>
       <c r="O61"/>
       <c r="P61"/>
-      <c r="Q61" s="1" t="inlineStr">
+      <c r="Q61" s="5" t="n">
+        <v>1.9270833333333333</v>
+      </c>
+      <c r="R61" s="1" t="inlineStr">
         <is>
           <t>02/07/2021 15:04 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -5405,7 +5592,7 @@
 02/07/...</t>
         </is>
       </c>
-      <c r="R61" s="1" t="inlineStr">
+      <c r="S61" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 16:20 PAULO HENRIQUE BRASIL RIBEIRO: 
 "Prezados,
@@ -5413,7 +5600,7 @@
 Atenciosament...</t>
         </is>
       </c>
-      <c r="S61" s="1" t="inlineStr">
+      <c r="T61" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 16:20 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
@@ -5483,7 +5670,10 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
-      <c r="Q62" s="1" t="inlineStr">
+      <c r="Q62" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R62" s="1" t="inlineStr">
         <is>
           <t>05/07/2021 14:20 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -5491,8 +5681,8 @@
 05/07/2...</t>
         </is>
       </c>
-      <c r="R62"/>
-      <c r="S62" s="1" t="inlineStr">
+      <c r="S62"/>
+      <c r="T62" s="1" t="inlineStr">
         <is>
           <t>05/07/2021 14:23 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -5562,7 +5752,10 @@
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
-      <c r="Q63" s="1" t="inlineStr">
+      <c r="Q63" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R63" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:35 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -5570,8 +5763,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R63"/>
-      <c r="S63" s="1" t="inlineStr">
+      <c r="S63"/>
+      <c r="T63" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:37 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -5641,7 +5834,10 @@
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64" s="1" t="inlineStr">
+      <c r="Q64" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R64" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:39 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -5649,8 +5845,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R64"/>
-      <c r="S64" s="1" t="inlineStr">
+      <c r="S64"/>
+      <c r="T64" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:40 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -5720,7 +5916,10 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65" s="1" t="inlineStr">
+      <c r="Q65" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R65" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:41 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -5728,8 +5927,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R65"/>
-      <c r="S65" s="1" t="inlineStr">
+      <c r="S65"/>
+      <c r="T65" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:43 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -5799,7 +5998,10 @@
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
-      <c r="Q66" s="1" t="inlineStr">
+      <c r="Q66" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R66" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:42 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -5807,8 +6009,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R66"/>
-      <c r="S66" s="1" t="inlineStr">
+      <c r="S66"/>
+      <c r="T66" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:44 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -5878,7 +6080,10 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
-      <c r="Q67" s="1" t="inlineStr">
+      <c r="Q67" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R67" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:43 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -5886,8 +6091,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R67"/>
-      <c r="S67" s="1" t="inlineStr">
+      <c r="S67"/>
+      <c r="T67" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:45 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -5957,7 +6162,10 @@
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
-      <c r="Q68" s="1" t="inlineStr">
+      <c r="Q68" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R68" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:44 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -5965,8 +6173,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R68"/>
-      <c r="S68" s="1" t="inlineStr">
+      <c r="S68"/>
+      <c r="T68" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:46 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -6036,7 +6244,10 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
-      <c r="Q69" s="1" t="inlineStr">
+      <c r="Q69" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R69" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:45 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -6044,8 +6255,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R69"/>
-      <c r="S69" s="1" t="inlineStr">
+      <c r="S69"/>
+      <c r="T69" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:47 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -6115,7 +6326,10 @@
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
-      <c r="Q70" s="1" t="inlineStr">
+      <c r="Q70" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R70" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:46 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -6123,8 +6337,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R70"/>
-      <c r="S70" s="1" t="inlineStr">
+      <c r="S70"/>
+      <c r="T70" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:48 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -6194,7 +6408,10 @@
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
-      <c r="Q71" s="1" t="inlineStr">
+      <c r="Q71" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R71" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:47 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -6202,8 +6419,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R71"/>
-      <c r="S71" s="1" t="inlineStr">
+      <c r="S71"/>
+      <c r="T71" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:49 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -6273,7 +6490,10 @@
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
-      <c r="Q72" s="1" t="inlineStr">
+      <c r="Q72" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R72" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:48 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -6281,8 +6501,8 @@
 07/07/...</t>
         </is>
       </c>
-      <c r="R72"/>
-      <c r="S72" s="1" t="inlineStr">
+      <c r="S72"/>
+      <c r="T72" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:50 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -6302,7 +6522,7 @@
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>Aguardando atendimento</t>
+          <t>Em atendimento</t>
         </is>
       </c>
       <c r="D73" s="6" t="inlineStr">
@@ -6352,7 +6572,10 @@
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
-      <c r="Q73" s="1" t="inlineStr">
+      <c r="Q73" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R73" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 15:36 RAYANE ARAUJO SOUSA: 
 Assunto:
@@ -6362,8 +6585,8 @@
 Seguindo nosso plano de expansão,...</t>
         </is>
       </c>
-      <c r="R73"/>
-      <c r="S73" s="1" t="inlineStr">
+      <c r="S73"/>
+      <c r="T73" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 15:38 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -6383,7 +6606,7 @@
       </c>
       <c r="C74" s="6" t="inlineStr">
         <is>
-          <t>Alterado pelo solicitante</t>
+          <t>Em atendimento</t>
         </is>
       </c>
       <c r="D74" s="6" t="inlineStr">
@@ -6393,7 +6616,7 @@
       </c>
       <c r="E74" s="6" t="inlineStr">
         <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
+          <t>Kaique Ferreira Henrique de Souza</t>
         </is>
       </c>
       <c r="F74" s="6" t="inlineStr">
@@ -6433,7 +6656,10 @@
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
-      <c r="Q74" s="1" t="inlineStr">
+      <c r="Q74" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R74" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 17:47 CAMILA DUARTE DA SILVA: 
 Assunto:
@@ -6443,16 +6669,16 @@
 - Abert...</t>
         </is>
       </c>
-      <c r="R74" s="1" t="inlineStr">
+      <c r="S74" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 17:33 CAMILA DUARTE DA SILVA: 
 Nossa, abri chamado para área errada, a intenção era para a área de Desenv. Estraté...</t>
         </is>
       </c>
-      <c r="S74" s="1" t="inlineStr">
-        <is>
-          <t>09/07/2021 17:33 Portal de Servi&amp;ccedil;os do CCS  &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
-&lt;img src='/icons/progresstrail.mail/16' s...</t>
+      <c r="T74" s="1" t="inlineStr">
+        <is>
+          <t>13/07/2021 11:08 Kaique Ferreira Henrique de Souza: 
+&lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bott...</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6695,7 @@
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>Aguardando atendimento</t>
+          <t>Em atendimento</t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
@@ -6479,7 +6705,7 @@
       </c>
       <c r="E75" s="6" t="inlineStr">
         <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
+          <t>Kaique Ferreira Henrique de Souza</t>
         </is>
       </c>
       <c r="F75" s="6" t="inlineStr">
@@ -6519,7 +6745,10 @@
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
-      <c r="Q75" s="1" t="inlineStr">
+      <c r="Q75" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R75" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 17:36 Atualizado pelo Sistema: 
 Cooperativa: 3054 - PAC: 00 - SICOOB CREDI-RURAL
@@ -6527,8 +6756,8 @@
 09/07/20...</t>
         </is>
       </c>
-      <c r="R75"/>
-      <c r="S75" s="1" t="inlineStr">
+      <c r="S75"/>
+      <c r="T75" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 17:38 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
@@ -6538,12 +6767,12 @@
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>I2105-259734</t>
+          <t>I2107-116604</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>MARCOS VINICIUS DE OLIVEIRA</t>
+          <t>VINICIUS SILVA BARBOSA</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
@@ -6553,7 +6782,7 @@
       </c>
       <c r="D76" s="6" t="inlineStr">
         <is>
-          <t>3055 - PAC: 00 - SICOOB COOPERCRED</t>
+          <t>3246 - PAC: 00 - SICOOB CREDSEGURO</t>
         </is>
       </c>
       <c r="E76" s="6" t="inlineStr">
@@ -6574,12 +6803,12 @@
       </c>
       <c r="I76" s="6" t="inlineStr">
         <is>
-          <t>2015. Institucional</t>
+          <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
       <c r="J76" s="6" t="inlineStr">
         <is>
-          <t>Cadastro e atualização de PA</t>
+          <t>Sisbr Analítico</t>
         </is>
       </c>
       <c r="K76" s="6" t="inlineStr">
@@ -6593,12 +6822,92 @@
         </is>
       </c>
       <c r="M76" s="3" t="n">
-        <v>44344.38748842593</v>
+        <v>44390.49599537037</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
-      <c r="Q76" s="1" t="inlineStr">
+      <c r="Q76" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R76" s="1" t="inlineStr">
+        <is>
+          <t>13/07/2021 11:54 Atualizado pelo Sistema: 
+Cooperativa: 3246 - PAC: 00 - SICOOB CREDSEGURO - GO
+Telefone: (62) 32750200
+13/0...</t>
+        </is>
+      </c>
+      <c r="S76"/>
+      <c r="T76"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>I2105-259734</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>MARCOS VINICIUS DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>Aguardando atendimento</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>3055 - PAC: 00 - SICOOB COOPERCRED</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6" t="inlineStr">
+        <is>
+          <t>2015. Institucional</t>
+        </is>
+      </c>
+      <c r="J77" s="6" t="inlineStr">
+        <is>
+          <t>Cadastro e atualização de PA</t>
+        </is>
+      </c>
+      <c r="K77" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L77" s="6" t="inlineStr">
+        <is>
+          <t>Registrado</t>
+        </is>
+      </c>
+      <c r="M77" s="3" t="n">
+        <v>44344.38748842593</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R77" s="1" t="inlineStr">
         <is>
           <t>28/05/2021 09:18 Atualizado pelo Sistema: 
 Cooperativa: 3055 - PAC: 00 - SICOOB COOPERCRED
@@ -6606,83 +6915,86 @@
 28/05/2021...</t>
         </is>
       </c>
-      <c r="R76" s="1" t="inlineStr">
+      <c r="S77" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 10:15 Atualizado pelo Sistema: 
 Grupo de operadores alterado de: 2015 - Institucional (2015 - PAC: 00 - SICOOBUNI)...</t>
         </is>
       </c>
-      <c r="S76" s="1" t="inlineStr">
+      <c r="T77" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 10:15 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="6" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
         <is>
           <t>I2106-076243</t>
         </is>
       </c>
-      <c r="B77" s="6" t="inlineStr">
+      <c r="B78" s="6" t="inlineStr">
         <is>
           <t>ALESSANDRO GONÇALVES CASTILHO</t>
         </is>
       </c>
-      <c r="C77" s="6" t="inlineStr">
-        <is>
-          <t>Aguardando atendimento</t>
-        </is>
-      </c>
-      <c r="D77" s="6" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>Em atendimento</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
         <is>
           <t>3064 - PAC: 00 - SICOOB GOIÂNIA</t>
         </is>
       </c>
-      <c r="E77" s="6" t="inlineStr">
+      <c r="E78" s="6" t="inlineStr">
         <is>
           <t>Kaique Ferreira Henrique de Souza</t>
         </is>
       </c>
-      <c r="F77" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
+      <c r="F78" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
         <v>0</v>
       </c>
-      <c r="H77" t="b">
+      <c r="H78" t="b">
         <v>0</v>
       </c>
-      <c r="I77" s="6" t="inlineStr">
+      <c r="I78" s="6" t="inlineStr">
         <is>
           <t>2015. Institucional</t>
         </is>
       </c>
-      <c r="J77" s="6" t="inlineStr">
+      <c r="J78" s="6" t="inlineStr">
         <is>
           <t>Cadastro e atualização de PA</t>
         </is>
       </c>
-      <c r="K77" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L77" s="6" t="inlineStr">
+      <c r="K78" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L78" s="6" t="inlineStr">
         <is>
           <t>Respondido</t>
         </is>
       </c>
-      <c r="M77" s="3" t="n">
+      <c r="M78" s="3" t="n">
         <v>44356.45475694445</v>
       </c>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77" s="1" t="inlineStr">
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R78" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 10:55 Atualizado pelo Sistema: 
 Cooperativa: 3064 - PAC: 00 - SICOOB GOIÂNIA
@@ -6690,13 +7002,13 @@
 09/06/2021 1...</t>
         </is>
       </c>
-      <c r="R77" s="1" t="inlineStr">
+      <c r="S78" s="1" t="inlineStr">
         <is>
           <t>06/07/2021 11:35 Atualizado pelo Sistema: 
 Grupo de operadores alterado de: 2015 - Institucional (2015 - PAC: 00 - SICOOBUNI)...</t>
         </is>
       </c>
-      <c r="S77" s="1" t="inlineStr">
+      <c r="T78" s="1" t="inlineStr">
         <is>
           <t>06/07/2021 11:35 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>

--- a/2015_-_Desenvolvimento_Estrate55.xlsx
+++ b/2015_-_Desenvolvimento_Estrate55.xlsx
@@ -6787,7 +6787,7 @@
       </c>
       <c r="E76" s="6" t="inlineStr">
         <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
+          <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
       <c r="F76" s="6" t="inlineStr">

--- a/2015_-_Desenvolvimento_Estrate55.xlsx
+++ b/2015_-_Desenvolvimento_Estrate55.xlsx
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>Em atendimento</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1163,17 +1163,19 @@
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>Registrado</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="M12" s="3" t="n">
         <v>44312.37217592593</v>
       </c>
-      <c r="N12"/>
+      <c r="N12" s="3" t="n">
+        <v>44390.69930555556</v>
+      </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" s="5" t="n">
-        <v>0.0</v>
+        <v>20.949305555555554</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
@@ -1183,11 +1185,17 @@
 26/04/2021 08:55 G...</t>
         </is>
       </c>
-      <c r="S12"/>
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>14/07/2021 07:48 PAULO HENRIQUE BRASIL RIBEIRO: 
+Boa tarde, prezados(as)! Estimo que estejam todos bem.
+Segue o atalho para...</t>
+        </is>
+      </c>
       <c r="T12" s="1" t="inlineStr">
         <is>
-          <t>26/04/2021 08:57 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
-&lt;img src='/icons/progresstrail.mail/16' st...</t>
+          <t>14/07/2021 07:48 PAULO HENRIQUE BRASIL RIBEIRO: 
+&lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>

--- a/2015_-_Desenvolvimento_Estrate55.xlsx
+++ b/2015_-_Desenvolvimento_Estrate55.xlsx
@@ -1093,22 +1093,22 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>I2105-142283</t>
+          <t>I2107-133257</t>
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>DUPLANIL PROTO DE SOUZA NETO</t>
+          <t>DIEGO BARBOSA DE CARVALHO</t>
         </is>
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>Finalizado por falta de resposta</t>
+          <t>Em atendimento</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>3054 - PAC: 00 - SICOOB CREDI-RURAL</t>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="6" t="inlineStr">
         <is>
-          <t>2015. Planos Expa.Plane Estrat</t>
+          <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
       <c r="J12" s="6" t="inlineStr">
         <is>
-          <t>Plano de Expansão</t>
+          <t>Sisbr Analítico</t>
         </is>
       </c>
       <c r="K12" s="6" t="inlineStr">
@@ -1144,23 +1144,112 @@
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>Fechado</t>
+          <t>Registrado</t>
         </is>
       </c>
       <c r="M12" s="3" t="n">
-        <v>44333.45622685185</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>44342.69861111111</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>44342.69861111111</v>
-      </c>
+        <v>44391.62296296296</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
+        <is>
+          <t>14/07/2021 14:57 Atualizado pelo Sistema: 
+Cooperativa: 2015 - PAC: 00 - SICOOBUNI
+Telefone: (62)40133700
+14/07/2021 14:57 D...</t>
+        </is>
+      </c>
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>14/07/2021 16:30 PAULO HENRIQUE BRASIL RIBEIRO: 
+Boa tarde, prezado!
+Construirei o relatório e envio assim que possível.
+Qu...</t>
+        </is>
+      </c>
+      <c r="T12" s="1" t="inlineStr">
+        <is>
+          <t>14/07/2021 16:30 PAULO HENRIQUE BRASIL RIBEIRO: 
+&lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>I2105-142283</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>DUPLANIL PROTO DE SOUZA NETO</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Finalizado por falta de resposta</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>3054 - PAC: 00 - SICOOB CREDI-RURAL</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>2015. Planos Expa.Plane Estrat</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
+        <is>
+          <t>Plano de Expansão</t>
+        </is>
+      </c>
+      <c r="K13" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
+        <is>
+          <t>Fechado</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>44333.45622685185</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>44342.69861111111</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>44342.69861111111</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13" s="5" t="n">
         <v>2.868055555555556</v>
       </c>
-      <c r="R12" s="1" t="inlineStr">
+      <c r="R13" s="1" t="inlineStr">
         <is>
           <t>17/05/2021 10:57 Atualizado pelo Sistema: 
 Cooperativa: 3054 - PAC: 00 - SICOOB CREDI-RURAL
@@ -1168,91 +1257,91 @@
 17/05/2021...</t>
         </is>
       </c>
-      <c r="S12" s="1" t="inlineStr">
+      <c r="S13" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 16:46 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="T12" s="1" t="inlineStr">
+      <c r="T13" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 16:46 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>I2104-060388</t>
         </is>
       </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>EDIELI SIANE ROVEDA</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>3054 - PAC: 00 - SICOOB CREDI-RURAL</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J13" s="6" t="inlineStr">
+      <c r="J14" s="6" t="inlineStr">
         <is>
           <t>PAD</t>
         </is>
       </c>
-      <c r="K13" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L13" s="6" t="inlineStr">
+      <c r="K14" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M14" s="3" t="n">
         <v>44294.50131944445</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N14" s="3" t="n">
         <v>44295.56319444445</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O14" s="3" t="n">
         <v>44301.563888888886</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13" s="5" t="n">
+      <c r="P14"/>
+      <c r="Q14" s="5" t="n">
         <v>0.4375</v>
       </c>
-      <c r="R13" s="1" t="inlineStr">
+      <c r="R14" s="1" t="inlineStr">
         <is>
           <t>08/04/2021 12:02 Atualizado pelo Sistema: 
 Cooperativa: 3054 - PAC: 00 - SICOOB CREDI-RURAL
@@ -1260,7 +1349,7 @@
 08/04/20...</t>
         </is>
       </c>
-      <c r="S13" s="1" t="inlineStr">
+      <c r="S14" s="1" t="inlineStr">
         <is>
           <t>09/04/2021 13:31 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -1268,84 +1357,84 @@
 Favor ave...</t>
         </is>
       </c>
-      <c r="T13" s="1" t="inlineStr">
+      <c r="T14" s="1" t="inlineStr">
         <is>
           <t>09/04/2021 13:31 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>I2105-023274</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>FABIO LOPES AZEVEDO</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>3058 - PAC: 00 - SICOOB CREDIGOIÁS</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
         <is>
           <t>2015. Processos e Projetos</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J15" s="6" t="inlineStr">
         <is>
           <t>Indicadores de Desempenho</t>
         </is>
       </c>
-      <c r="K14" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L14" s="6" t="inlineStr">
+      <c r="K15" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L15" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M15" s="3" t="n">
         <v>44320.6196412037</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N15" s="3" t="n">
         <v>44321.36666666667</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O15" s="3" t="n">
         <v>44327.36736111111</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14" s="5" t="n">
+      <c r="P15"/>
+      <c r="Q15" s="5" t="n">
         <v>0.13055555555555556</v>
       </c>
-      <c r="R14" s="1" t="inlineStr">
+      <c r="R15" s="1" t="inlineStr">
         <is>
           <t>04/05/2021 14:52 Atualizado pelo Sistema: 
 Cooperativa: 3058 - PAC: 00 - SICOOB CREDIGOIÁS
@@ -1353,91 +1442,91 @@
 04/05/2...</t>
         </is>
       </c>
-      <c r="S14" s="1" t="inlineStr">
+      <c r="S15" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 08:48 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="T14" s="1" t="inlineStr">
+      <c r="T15" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 08:48 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>I2105-160602</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>FERNANDA DA SILVA RAMOS</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>5631 - PAC: 00 - SICOOB UNI SUDESTE</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>PEDRO LEONARDO LONGHIN SILVA</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J15" s="6" t="inlineStr">
+      <c r="J16" s="6" t="inlineStr">
         <is>
           <t>Plano de Expansão</t>
         </is>
       </c>
-      <c r="K15" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L15" s="6" t="inlineStr">
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L16" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M16" s="3" t="n">
         <v>44334.62291666667</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N16" s="3" t="n">
         <v>44342.64513888889</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="O16" s="3" t="n">
         <v>44348.646527777775</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15" s="5" t="n">
+      <c r="P16"/>
+      <c r="Q16" s="5" t="n">
         <v>2.2722222222222226</v>
       </c>
-      <c r="R15" s="1" t="inlineStr">
+      <c r="R16" s="1" t="inlineStr">
         <is>
           <t>18/05/2021 14:57 Atualizado pelo Sistema: 
 Cooperativa: 5631 - PAC: 00 - UNISAÚDE SUDESTE
@@ -1445,7 +1534,7 @@
 18/05/2021 14...</t>
         </is>
       </c>
-      <c r="S15" s="1" t="inlineStr">
+      <c r="S16" s="1" t="inlineStr">
         <is>
           <t>25/05/2021 09:13 FERNANDA DA SILVA RAMOS: 
 Segue retorno do INNOR.
@@ -1453,84 +1542,84 @@
 Prezada,...</t>
         </is>
       </c>
-      <c r="T15" s="1" t="inlineStr">
+      <c r="T16" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 15:30 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>I2106-008463</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>GABRIEL CESAR MACEDO DA SILVA</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>5038 - PAC: 00 - SICOOB UNIRBO</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="inlineStr">
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J16" s="6" t="inlineStr">
+      <c r="J17" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K16" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L16" s="6" t="inlineStr">
+      <c r="K17" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L17" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="M17" s="3" t="n">
         <v>44348.56765046297</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="N17" s="3" t="n">
         <v>44361.59444444445</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="O17" s="3" t="n">
         <v>44367.59583333333</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16" s="5" t="n">
+      <c r="P17"/>
+      <c r="Q17" s="5" t="n">
         <v>3.027083333333333</v>
       </c>
-      <c r="R16" s="1" t="inlineStr">
+      <c r="R17" s="1" t="inlineStr">
         <is>
           <t>01/06/2021 13:37 Atualizado pelo Sistema: 
 Cooperativa: 5038 - PAC: 00 - UNIRBO
@@ -1538,91 +1627,91 @@
 01/06/2021 13:37 GABR...</t>
         </is>
       </c>
-      <c r="S16" s="1" t="inlineStr">
+      <c r="S17" s="1" t="inlineStr">
         <is>
           <t>14/06/2021 14:17 PAULO HENRIQUE BRASIL RIBEIRO: 
 Certo, Gabriel! Agradeço imensamente pelo retorno.
 Caso queira estarei dispo...</t>
         </is>
       </c>
-      <c r="T16" s="1" t="inlineStr">
+      <c r="T17" s="1" t="inlineStr">
         <is>
           <t>14/06/2021 14:17 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>I2104-108909</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>Gabriella Soares Lima</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>PEDRO LEONARDO LONGHIN SILVA</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>2015. Processos e Projetos</t>
         </is>
       </c>
-      <c r="J17" s="6" t="inlineStr">
+      <c r="J18" s="6" t="inlineStr">
         <is>
           <t>Processos e Projetos</t>
         </is>
       </c>
-      <c r="K17" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L17" s="6" t="inlineStr">
+      <c r="K18" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L18" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M18" s="3" t="n">
         <v>44300.38730324074</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N18" s="3" t="n">
         <v>44313.37430555555</v>
       </c>
-      <c r="O17" s="3" t="n">
+      <c r="O18" s="3" t="n">
         <v>44319.37569444445</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17" s="5" t="n">
+      <c r="P18"/>
+      <c r="Q18" s="5" t="n">
         <v>2.9881944444444444</v>
       </c>
-      <c r="R17" s="1" t="inlineStr">
+      <c r="R18" s="1" t="inlineStr">
         <is>
           <t>14/04/2021 09:17 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -1630,95 +1719,95 @@
 14/04/2021 09:17 G...</t>
         </is>
       </c>
-      <c r="S17" s="1" t="inlineStr">
+      <c r="S18" s="1" t="inlineStr">
         <is>
           <t>27/04/2021 08:59 PEDRO LEONARDO LONGHIN SILVA: 
 Prezada, segue em anexo o Mapeamento do processo de crédito.
 Espero ter ajuda...</t>
         </is>
       </c>
-      <c r="T17" s="1" t="inlineStr">
+      <c r="T18" s="1" t="inlineStr">
         <is>
           <t>27/04/2021 09:00 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>I2104-200730</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>Gabriella Soares Lima</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J18" s="6" t="inlineStr">
+      <c r="J19" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K18" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L18" s="6" t="inlineStr">
+      <c r="K19" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L19" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="M19" s="3" t="n">
         <v>44312.37217592593</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N19" s="3" t="n">
         <v>44390.69930555556</v>
       </c>
-      <c r="O18" s="3" t="n">
+      <c r="O19" s="3" t="n">
         <v>44391.380377002315</v>
       </c>
-      <c r="P18" s="6" t="inlineStr">
+      <c r="P19" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="Q19" s="5" t="n">
         <v>20.949305555555554</v>
       </c>
-      <c r="R18" s="1" t="inlineStr">
+      <c r="R19" s="1" t="inlineStr">
         <is>
           <t>26/04/2021 08:55 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -1726,91 +1815,91 @@
 26/04/2021 08:55 G...</t>
         </is>
       </c>
-      <c r="S18" s="1" t="inlineStr">
+      <c r="S19" s="1" t="inlineStr">
         <is>
           <t>14/07/2021 07:48 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezados(as)! Estimo que estejam todos bem.
 Segue o atalho para...</t>
         </is>
       </c>
-      <c r="T18" s="1" t="inlineStr">
+      <c r="T19" s="1" t="inlineStr">
         <is>
           <t>14/07/2021 07:48 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>I2106-129275</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>GUNNAR OLIVEIRA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>5018 - PAC: 00 - SICOOB UNIRONDÔNIA</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J19" s="6" t="inlineStr">
+      <c r="J20" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K19" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L19" s="6" t="inlineStr">
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L20" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M20" s="3" t="n">
         <v>44362.391226851854</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N20" s="3" t="n">
         <v>44363.37152777778</v>
       </c>
-      <c r="O19" s="3" t="n">
+      <c r="O20" s="3" t="n">
         <v>44369.37291666667</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19" s="5" t="n">
+      <c r="P20"/>
+      <c r="Q20" s="5" t="n">
         <v>0.3590277777777778</v>
       </c>
-      <c r="R19" s="1" t="inlineStr">
+      <c r="R20" s="1" t="inlineStr">
         <is>
           <t>15/06/2021 09:23 Atualizado pelo Sistema: 
 Cooperativa: 5018 - PAC: 00 - SICOOB UNIRONDÔNIA
@@ -1818,7 +1907,7 @@
 15/06/2021...</t>
         </is>
       </c>
-      <c r="S19" s="1" t="inlineStr">
+      <c r="S20" s="1" t="inlineStr">
         <is>
           <t>16/06/2021 08:56 PAULO HENRIQUE BRASIL RIBEIRO: 
 Perfil de autor concedido no Sisbr Analítico.
@@ -1826,84 +1915,84 @@
 Paulo H. B....</t>
         </is>
       </c>
-      <c r="T19" s="1" t="inlineStr">
+      <c r="T20" s="1" t="inlineStr">
         <is>
           <t>16/06/2021 08:56 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>I2104-143775</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>HELDO SILVA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>5038 - PAC: 00 - SICOOB UNIRBO</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="J21" s="6" t="inlineStr">
         <is>
           <t>Sobras</t>
         </is>
       </c>
-      <c r="K20" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L20" s="6" t="inlineStr">
+      <c r="K21" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L21" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M21" s="3" t="n">
         <v>44302.72326388889</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="N21" s="3" t="n">
         <v>44306.36736111111</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O21" s="3" t="n">
         <v>44312.368055555555</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20" s="5" t="n">
+      <c r="P21"/>
+      <c r="Q21" s="5" t="n">
         <v>0.40208333333333335</v>
       </c>
-      <c r="R20" s="1" t="inlineStr">
+      <c r="R21" s="1" t="inlineStr">
         <is>
           <t>16/04/2021 17:21 Atualizado pelo Sistema: 
 Cooperativa: 5038 - PAC: 00 - UNIRBO
@@ -1911,7 +2000,7 @@
 16/04/2021 17:21 HEL...</t>
         </is>
       </c>
-      <c r="S20" s="1" t="inlineStr">
+      <c r="S21" s="1" t="inlineStr">
         <is>
           <t>20/04/2021 08:49 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -1919,84 +2008,84 @@
 Hel...</t>
         </is>
       </c>
-      <c r="T20" s="1" t="inlineStr">
+      <c r="T21" s="1" t="inlineStr">
         <is>
           <t>20/04/2021 08:49 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>I2105-237193</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>HELLBER PEREIRA</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>3246 - PAC: 00 - SICOOB CREDSEGURO</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J21" s="6" t="inlineStr">
+      <c r="J22" s="6" t="inlineStr">
         <is>
           <t>PAD</t>
         </is>
       </c>
-      <c r="K21" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L21" s="6" t="inlineStr">
+      <c r="K22" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L22" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M22" s="3" t="n">
         <v>44342.487858796296</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N22" s="3" t="n">
         <v>44347.65069444444</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="O22" s="3" t="n">
         <v>44353.65138888889</v>
       </c>
-      <c r="P21"/>
-      <c r="Q21" s="5" t="n">
+      <c r="P22"/>
+      <c r="Q22" s="5" t="n">
         <v>1.2881944444444444</v>
       </c>
-      <c r="R21" s="1" t="inlineStr">
+      <c r="R22" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 11:42 Atualizado pelo Sistema: 
 Cooperativa: 3246 - PAC: 00 - SICOOB CREDSEGURO - GO
@@ -2004,91 +2093,91 @@
 26/05/...</t>
         </is>
       </c>
-      <c r="S21" s="1" t="inlineStr">
+      <c r="S22" s="1" t="inlineStr">
         <is>
           <t>31/05/2021 15:37 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
  Certo, Hellber. Realmente...</t>
         </is>
       </c>
-      <c r="T21" s="1" t="inlineStr">
+      <c r="T22" s="1" t="inlineStr">
         <is>
           <t>31/05/2021 15:37 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>I2104-229333</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>Henrique Santos Ludovino</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>Finalizado por falta de resposta</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>5014 - PAC: 00 - SICOOB UNICIDADES</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J22" s="6" t="inlineStr">
+      <c r="J23" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K22" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L22" s="6" t="inlineStr">
+      <c r="K23" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L23" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="M23" s="3" t="n">
         <v>44314.4537037037</v>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="N23" s="3" t="n">
         <v>44321.71388888889</v>
       </c>
-      <c r="O22" s="3" t="n">
+      <c r="O23" s="3" t="n">
         <v>44321.71388888889</v>
       </c>
-      <c r="P22"/>
-      <c r="Q22" s="5" t="n">
+      <c r="P23"/>
+      <c r="Q23" s="5" t="n">
         <v>2.1354166666666665</v>
       </c>
-      <c r="R22" s="1" t="inlineStr">
+      <c r="R23" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 10:53 Atualizado pelo Sistema: 
 Cooperativa: 5014 - PAC: 00 - UNISAÚDE GOIÁS
@@ -2096,7 +2185,7 @@
 28/04/2021...</t>
         </is>
       </c>
-      <c r="S22" s="1" t="inlineStr">
+      <c r="S23" s="1" t="inlineStr">
         <is>
           <t>29/04/2021 17:07 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -2104,84 +2193,84 @@
 Encont...</t>
         </is>
       </c>
-      <c r="T22" s="1" t="inlineStr">
+      <c r="T23" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 17:08 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>I2106-181489</t>
         </is>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>Henrique Santos Ludovino</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>Finalizado por falta de resposta</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>5014 - PAC: 00 - SICOOB UNICIDADES</t>
         </is>
       </c>
-      <c r="E23" s="6" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="inlineStr">
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J23" s="6" t="inlineStr">
+      <c r="J24" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K23" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L23" s="6" t="inlineStr">
+      <c r="K24" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L24" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="M24" s="3" t="n">
         <v>44368.41447916667</v>
       </c>
-      <c r="N23" s="3" t="n">
+      <c r="N24" s="3" t="n">
         <v>44374.62847222222</v>
       </c>
-      <c r="O23" s="3" t="n">
+      <c r="O24" s="3" t="n">
         <v>44374.62847222222</v>
       </c>
-      <c r="P23"/>
-      <c r="Q23" s="5" t="n">
+      <c r="P24"/>
+      <c r="Q24" s="5" t="n">
         <v>1.8361111111111112</v>
       </c>
-      <c r="R23" s="1" t="inlineStr">
+      <c r="R24" s="1" t="inlineStr">
         <is>
           <t>21/06/2021 09:56 Atualizado pelo Sistema: 
 Cooperativa: 5014 - PAC: 00 - UNISAÚDE GOIÁS
@@ -2189,91 +2278,91 @@
 21/06/2021...</t>
         </is>
       </c>
-      <c r="S23" s="1" t="inlineStr">
+      <c r="S24" s="1" t="inlineStr">
         <is>
           <t>21/06/2021 15:05 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezados(as)! Estimo que estejam todos bem.
 No Armazém Cliente e...</t>
         </is>
       </c>
-      <c r="T23" s="1" t="inlineStr">
+      <c r="T24" s="1" t="inlineStr">
         <is>
           <t>27/06/2021 15:05 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>I2106-186476</t>
         </is>
       </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>Hívyna Leopoldina Mesquita do</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>3343 - PAC: 00 - SICOOB EMPRESARIAL</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="inlineStr">
         <is>
           <t>2015. Cadastro de Pessoas</t>
         </is>
       </c>
-      <c r="J24" s="6" t="inlineStr">
+      <c r="J25" s="6" t="inlineStr">
         <is>
           <t>Emissão Form/Ficha Padrão Rela</t>
         </is>
       </c>
-      <c r="K24" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L24" s="6" t="inlineStr">
+      <c r="K25" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L25" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="M25" s="3" t="n">
         <v>44368.59337962963</v>
       </c>
-      <c r="N24" s="3" t="n">
+      <c r="N25" s="3" t="n">
         <v>44370.36944444444</v>
       </c>
-      <c r="O24" s="3" t="n">
+      <c r="O25" s="3" t="n">
         <v>44376.37013888889</v>
       </c>
-      <c r="P24"/>
-      <c r="Q24" s="5" t="n">
+      <c r="P25"/>
+      <c r="Q25" s="5" t="n">
         <v>0.5319444444444444</v>
       </c>
-      <c r="R24" s="1" t="inlineStr">
+      <c r="R25" s="1" t="inlineStr">
         <is>
           <t>21/06/2021 14:14 Atualizado pelo Sistema: 
 Cooperativa: 3343 - PAC: 00 - SICOOB EMPRESARIAL
@@ -2281,87 +2370,87 @@
 21/06/2021...</t>
         </is>
       </c>
-      <c r="S24" s="1" t="inlineStr">
+      <c r="S25" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 08:53 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezados(as)! Estimo que estejam todos bem.
 Hívyna, disponibiliz...</t>
         </is>
       </c>
-      <c r="T24" s="1" t="inlineStr">
+      <c r="T25" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 08:53 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>I2107-036955</t>
         </is>
       </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>Jhonatan De Sousa Bento</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>Aguardando atendimento</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>5004 - PAC: 00 - SICOOB UNICENTRO BRASILEIRA</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>Kaique Ferreira Henrique de Souza</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
         <v>0</v>
       </c>
-      <c r="H25" t="b">
+      <c r="H26" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="6" t="inlineStr">
+      <c r="I26" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J25" s="6" t="inlineStr">
+      <c r="J26" s="6" t="inlineStr">
         <is>
           <t>Plano de Expansão</t>
         </is>
       </c>
-      <c r="K25" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L25" s="6" t="inlineStr">
+      <c r="K26" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L26" s="6" t="inlineStr">
         <is>
           <t>Registrado</t>
         </is>
       </c>
-      <c r="M25" s="3" t="n">
+      <c r="M26" s="3" t="n">
         <v>44382.59784722222</v>
       </c>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25" s="5" t="n">
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="R25" s="1" t="inlineStr">
+      <c r="R26" s="1" t="inlineStr">
         <is>
           <t>05/07/2021 14:20 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -2369,85 +2458,85 @@
 05/07/2...</t>
         </is>
       </c>
-      <c r="S25"/>
-      <c r="T25" s="1" t="inlineStr">
+      <c r="S26"/>
+      <c r="T26" s="1" t="inlineStr">
         <is>
           <t>05/07/2021 14:23 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>I2105-282309</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>JOAO ANTONIO JUNIOR</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>Finalizado por falta de resposta</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>5004 - PAC: 00 - SICOOB UNICENTRO BRASILEIRA</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J26" s="6" t="inlineStr">
+      <c r="J27" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K26" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L26" s="6" t="inlineStr">
+      <c r="K27" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L27" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M26" s="3" t="n">
+      <c r="M27" s="3" t="n">
         <v>44347.70041666667</v>
       </c>
-      <c r="N26" s="3" t="n">
+      <c r="N27" s="3" t="n">
         <v>44361.433333333334</v>
       </c>
-      <c r="O26" s="3" t="n">
+      <c r="O27" s="3" t="n">
         <v>44361.433333333334</v>
       </c>
-      <c r="P26"/>
-      <c r="Q26" s="5" t="n">
+      <c r="P27"/>
+      <c r="Q27" s="5" t="n">
         <v>3.1083333333333334</v>
       </c>
-      <c r="R26" s="1" t="inlineStr">
+      <c r="R27" s="1" t="inlineStr">
         <is>
           <t>31/05/2021 16:48 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -2455,7 +2544,7 @@
 31/05/...</t>
         </is>
       </c>
-      <c r="S26" s="1" t="inlineStr">
+      <c r="S27" s="1" t="inlineStr">
         <is>
           <t>08/06/2021 10:24 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezados(as)!
@@ -2463,84 +2552,84 @@
 Na...</t>
         </is>
       </c>
-      <c r="T26" s="1" t="inlineStr">
+      <c r="T27" s="1" t="inlineStr">
         <is>
           <t>14/06/2021 10:24 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>I2106-143642</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>JOAO ANTONIO JUNIOR</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>Finalizado por falta de resposta</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>5004 - PAC: 00 - SICOOB UNICENTRO BRASILEIRA</t>
         </is>
       </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6" t="inlineStr">
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J27" s="6" t="inlineStr">
+      <c r="J28" s="6" t="inlineStr">
         <is>
           <t>Planejamento Estratégico</t>
         </is>
       </c>
-      <c r="K27" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L27" s="6" t="inlineStr">
+      <c r="K28" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L28" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M27" s="3" t="n">
+      <c r="M28" s="3" t="n">
         <v>44363.422997685186</v>
       </c>
-      <c r="N27" s="3" t="n">
+      <c r="N28" s="3" t="n">
         <v>44377.63402777778</v>
       </c>
-      <c r="O27" s="3" t="n">
+      <c r="O28" s="3" t="n">
         <v>44377.63402777778</v>
       </c>
-      <c r="P27"/>
-      <c r="Q27" s="5" t="n">
+      <c r="P28"/>
+      <c r="Q28" s="5" t="n">
         <v>3.961111111111111</v>
       </c>
-      <c r="R27" s="1" t="inlineStr">
+      <c r="R28" s="1" t="inlineStr">
         <is>
           <t>16/06/2021 10:09 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -2548,89 +2637,89 @@
 16/06/...</t>
         </is>
       </c>
-      <c r="S27" s="1" t="inlineStr">
+      <c r="S28" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 14:49 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, João.
 Repassei a informação e a equipe já efetuou alguns ajustes...</t>
         </is>
       </c>
-      <c r="T27" s="1" t="inlineStr">
+      <c r="T28" s="1" t="inlineStr">
         <is>
           <t>30/06/2021 15:13 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>I2107-023301</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>JOAO ANTONIO JUNIOR</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>Resolvido</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>5004 - PAC: 00 - SICOOB UNICENTRO BRASILEIRA</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="b">
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I28" s="6" t="inlineStr">
+      <c r="I29" s="6" t="inlineStr">
         <is>
           <t>2015. Gestão Acesso Sistemas</t>
         </is>
       </c>
-      <c r="J28" s="6" t="inlineStr">
+      <c r="J29" s="6" t="inlineStr">
         <is>
           <t>Sisbr/Metaframe</t>
         </is>
       </c>
-      <c r="K28" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L28" s="6" t="inlineStr">
+      <c r="K29" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L29" s="6" t="inlineStr">
         <is>
           <t>Resolvido</t>
         </is>
       </c>
-      <c r="M28" s="3" t="n">
+      <c r="M29" s="3" t="n">
         <v>44379.62782407407</v>
       </c>
-      <c r="N28" s="3" t="n">
+      <c r="N29" s="3" t="n">
         <v>44386.67986111111</v>
       </c>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28" s="5" t="n">
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" s="5" t="n">
         <v>1.9270833333333333</v>
       </c>
-      <c r="R28" s="1" t="inlineStr">
+      <c r="R29" s="1" t="inlineStr">
         <is>
           <t>02/07/2021 15:04 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -2638,7 +2727,7 @@
 02/07/...</t>
         </is>
       </c>
-      <c r="S28" s="1" t="inlineStr">
+      <c r="S29" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 16:20 PAULO HENRIQUE BRASIL RIBEIRO: 
 "Prezados,
@@ -2646,80 +2735,80 @@
 Atenciosament...</t>
         </is>
       </c>
-      <c r="T28" s="1" t="inlineStr">
+      <c r="T29" s="1" t="inlineStr">
         <is>
           <t>09/07/2021 16:20 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>I2106-052549</t>
         </is>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>JULYANA ARAUJO DE MORAES</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>Aguardando atendimento externo</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>5004 - PAC: 00 - SICOOB UNICENTRO BRASILEIRA</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
+      <c r="F30" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
         <v>0</v>
       </c>
-      <c r="H29" t="b">
+      <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="I29" s="6" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J29" s="6" t="inlineStr">
+      <c r="J30" s="6" t="inlineStr">
         <is>
           <t>PAD</t>
         </is>
       </c>
-      <c r="K29" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L29" s="6" t="inlineStr">
+      <c r="K30" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L30" s="6" t="inlineStr">
         <is>
           <t>Respondido</t>
         </is>
       </c>
-      <c r="M29" s="3" t="n">
+      <c r="M30" s="3" t="n">
         <v>44354.61513888889</v>
       </c>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29" s="5" t="n">
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="R29" s="1" t="inlineStr">
+      <c r="R30" s="1" t="inlineStr">
         <is>
           <t>07/06/2021 14:45 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -2727,95 +2816,95 @@
 07/06/...</t>
         </is>
       </c>
-      <c r="S29" s="1" t="inlineStr">
+      <c r="S30" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 08:58 PAULO HENRIQUE BRASIL RIBEIRO: 
 Bom dia, prezada Julyana.
 A data de relacionamento é vinculada a ativação d...</t>
         </is>
       </c>
-      <c r="T29" s="1" t="inlineStr">
+      <c r="T30" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 08:58 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>I2105-261742</t>
         </is>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>LEANDRO DO PRADO ASSUNCAO</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J30" s="6" t="inlineStr">
+      <c r="J31" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K30" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L30" s="6" t="inlineStr">
+      <c r="K31" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L31" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M30" s="3" t="n">
+      <c r="M31" s="3" t="n">
         <v>44344.45128472222</v>
       </c>
-      <c r="N30" s="3" t="n">
+      <c r="N31" s="3" t="n">
         <v>44349.41527777778</v>
       </c>
-      <c r="O30" s="3" t="n">
+      <c r="O31" s="3" t="n">
         <v>44349.675643518516</v>
       </c>
-      <c r="P30" s="6" t="inlineStr">
+      <c r="P31" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q30" s="5" t="n">
+      <c r="Q31" s="5" t="n">
         <v>1.0895833333333333</v>
       </c>
-      <c r="R30" s="1" t="inlineStr">
+      <c r="R31" s="1" t="inlineStr">
         <is>
           <t>28/05/2021 10:49 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -2823,95 +2912,95 @@
 28/05/2021 10:49...</t>
         </is>
       </c>
-      <c r="S30" s="1" t="inlineStr">
+      <c r="S31" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 09:58 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezado! Estimo que esteja bem.
 Segue em anexo dois arquivos. Um...</t>
         </is>
       </c>
-      <c r="T30" s="1" t="inlineStr">
+      <c r="T31" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 09:58 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>I2106-215001</t>
         </is>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B32" s="6" t="inlineStr">
         <is>
           <t>LEANDRO DO PRADO ASSUNCAO</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J31" s="6" t="inlineStr">
+      <c r="J32" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K31" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L31" s="6" t="inlineStr">
+      <c r="K32" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L32" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M31" s="3" t="n">
+      <c r="M32" s="3" t="n">
         <v>44370.65957175926</v>
       </c>
-      <c r="N31" s="3" t="n">
+      <c r="N32" s="3" t="n">
         <v>44371.51111111111</v>
       </c>
-      <c r="O31" s="3" t="n">
+      <c r="O32" s="3" t="n">
         <v>44375.64832847222</v>
       </c>
-      <c r="P31" s="6" t="inlineStr">
+      <c r="P32" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q31" s="5" t="n">
+      <c r="Q32" s="5" t="n">
         <v>0.22708333333333333</v>
       </c>
-      <c r="R31" s="1" t="inlineStr">
+      <c r="R32" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 15:49 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -2919,95 +3008,95 @@
 23/06/2021 15:49...</t>
         </is>
       </c>
-      <c r="S31" s="1" t="inlineStr">
+      <c r="S32" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 14:44 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, Leandro!
 Conforme você notificou via Teams esses números que man...</t>
         </is>
       </c>
-      <c r="T31" s="1" t="inlineStr">
+      <c r="T32" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 12:17 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>I2106-248161</t>
         </is>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>LEANDRO DO PRADO ASSUNCAO</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J32" s="6" t="inlineStr">
+      <c r="J33" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K32" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L32" s="6" t="inlineStr">
+      <c r="K33" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L33" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M32" s="3" t="n">
+      <c r="M33" s="3" t="n">
         <v>44375.46295138889</v>
       </c>
-      <c r="N32" s="3" t="n">
+      <c r="N33" s="3" t="n">
         <v>44376.41340899305</v>
       </c>
-      <c r="O32" s="3" t="n">
+      <c r="O33" s="3" t="n">
         <v>44376.41340899305</v>
       </c>
-      <c r="P32" s="6" t="inlineStr">
+      <c r="P33" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q32" s="5" t="n">
+      <c r="Q33" s="5" t="n">
         <v>0.32569444444444445</v>
       </c>
-      <c r="R32" s="1" t="inlineStr">
+      <c r="R33" s="1" t="inlineStr">
         <is>
           <t>28/06/2021 11:06 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -3015,7 +3104,7 @@
 28/06/2021 11:06...</t>
         </is>
       </c>
-      <c r="S32" s="1" t="inlineStr">
+      <c r="S33" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 09:55 LEANDRO DO PRADO ASSUNCAO: 
 Muito Obrigado!
@@ -3023,84 +3112,84 @@
 Boa tarde, Lea...</t>
         </is>
       </c>
-      <c r="T32" s="1" t="inlineStr">
+      <c r="T33" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 09:55 Portal de Servi&amp;ccedil;os do CCS  &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' s...</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>I2104-134366</t>
         </is>
       </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>LEANDRO FELIX DE ABREU</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>5024 - PAC: 00 - SICOOB UNICENTRO NORTE GOIANO</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J33" s="6" t="inlineStr">
+      <c r="J34" s="6" t="inlineStr">
         <is>
           <t>PAD</t>
         </is>
       </c>
-      <c r="K33" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L33" s="6" t="inlineStr">
+      <c r="K34" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L34" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M33" s="3" t="n">
+      <c r="M34" s="3" t="n">
         <v>44302.374398148146</v>
       </c>
-      <c r="N33" s="3" t="n">
+      <c r="N34" s="3" t="n">
         <v>44314.35138888889</v>
       </c>
-      <c r="O33" s="3" t="n">
+      <c r="O34" s="3" t="n">
         <v>44320.35208333333</v>
       </c>
-      <c r="P33"/>
-      <c r="Q33" s="5" t="n">
+      <c r="P34"/>
+      <c r="Q34" s="5" t="n">
         <v>2.625</v>
       </c>
-      <c r="R33" s="1" t="inlineStr">
+      <c r="R34" s="1" t="inlineStr">
         <is>
           <t>16/04/2021 08:59 Atualizado pelo Sistema: 
 Cooperativa: 5024 - PAC: 00 - UNICENTRO NORTE GOIANO
@@ -3108,91 +3197,91 @@
 16/04/...</t>
         </is>
       </c>
-      <c r="S33" s="1" t="inlineStr">
+      <c r="S34" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 08:26 PAULO HENRIQUE BRASIL RIBEIRO: 
 ["Bom dia Paulo
 Todas as origens das contas relativas ao CDI, estão descrit...</t>
         </is>
       </c>
-      <c r="T33" s="1" t="inlineStr">
+      <c r="T34" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 08:26 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.attachment/16' style='vertical-align: text-bo...</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="6" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>I2104-135680</t>
         </is>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="B35" s="6" t="inlineStr">
         <is>
           <t>LEANDRO FELIX DE ABREU</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>5024 - PAC: 00 - SICOOB UNICENTRO NORTE GOIANO</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6" t="inlineStr">
+      <c r="F35" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J34" s="6" t="inlineStr">
+      <c r="J35" s="6" t="inlineStr">
         <is>
           <t>PAD</t>
         </is>
       </c>
-      <c r="K34" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L34" s="6" t="inlineStr">
+      <c r="K35" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L35" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M34" s="3" t="n">
+      <c r="M35" s="3" t="n">
         <v>44302.41844907407</v>
       </c>
-      <c r="N34" s="3" t="n">
+      <c r="N35" s="3" t="n">
         <v>44321.666666666664</v>
       </c>
-      <c r="O34" s="3" t="n">
+      <c r="O35" s="3" t="n">
         <v>44327.67013888889</v>
       </c>
-      <c r="P34"/>
-      <c r="Q34" s="5" t="n">
+      <c r="P35"/>
+      <c r="Q35" s="5" t="n">
         <v>4.748611111111112</v>
       </c>
-      <c r="R34" s="1" t="inlineStr">
+      <c r="R35" s="1" t="inlineStr">
         <is>
           <t>16/04/2021 10:02 Atualizado pelo Sistema: 
 Cooperativa: 5024 - PAC: 00 - UNICENTRO NORTE GOIANO
@@ -3200,90 +3289,90 @@
 16/04/...</t>
         </is>
       </c>
-      <c r="S34" s="1" t="inlineStr">
+      <c r="S35" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 16:05 PAULO HENRIQUE BRASIL RIBEIRO: 
 ["A LCI ainda não está compondo a APN e portanto, não é alocada em nenhuma r...</t>
         </is>
       </c>
-      <c r="T34" s="1" t="inlineStr">
+      <c r="T35" s="1" t="inlineStr">
         <is>
           <t>05/05/2021 16:05 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>I2104-091984</t>
         </is>
       </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="B36" s="6" t="inlineStr">
         <is>
           <t>Lucas Almeida da Silva</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D35" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="F35" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J35" s="6" t="inlineStr">
+      <c r="J36" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K35" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L35" s="6" t="inlineStr">
+      <c r="K36" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L36" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M35" s="3" t="n">
+      <c r="M36" s="3" t="n">
         <v>44298.71480324074</v>
       </c>
-      <c r="N35" s="3" t="n">
+      <c r="N36" s="3" t="n">
         <v>44299.49791666667</v>
       </c>
-      <c r="O35" s="3" t="n">
+      <c r="O36" s="3" t="n">
         <v>44305.50347222222</v>
       </c>
-      <c r="P35"/>
-      <c r="Q35" s="5" t="n">
+      <c r="P36"/>
+      <c r="Q36" s="5" t="n">
         <v>0.15833333333333333</v>
       </c>
-      <c r="R35" s="1" t="inlineStr">
+      <c r="R36" s="1" t="inlineStr">
         <is>
           <t>12/04/2021 17:09 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -3291,7 +3380,7 @@
 12/04/2021 17:09...</t>
         </is>
       </c>
-      <c r="S35" s="1" t="inlineStr">
+      <c r="S36" s="1" t="inlineStr">
         <is>
           <t>13/04/2021 12:04 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -3299,84 +3388,84 @@
 E...</t>
         </is>
       </c>
-      <c r="T35" s="1" t="inlineStr">
+      <c r="T36" s="1" t="inlineStr">
         <is>
           <t>13/04/2021 12:04 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
         <is>
           <t>I2105-201549</t>
         </is>
       </c>
-      <c r="B36" s="6" t="inlineStr">
+      <c r="B37" s="6" t="inlineStr">
         <is>
           <t>MARCOS VINICIUS DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C36" s="6" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D36" s="6" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>3055 - PAC: 00 - SICOOB COOPERCRED</t>
         </is>
       </c>
-      <c r="E36" s="6" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
         <is>
           <t>PEDRO LEONARDO LONGHIN SILVA</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6" t="inlineStr">
+      <c r="F37" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J36" s="6" t="inlineStr">
+      <c r="J37" s="6" t="inlineStr">
         <is>
           <t>Plano de Expansão</t>
         </is>
       </c>
-      <c r="K36" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L36" s="6" t="inlineStr">
+      <c r="K37" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L37" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M36" s="3" t="n">
+      <c r="M37" s="3" t="n">
         <v>44337.69509259259</v>
       </c>
-      <c r="N36" s="3" t="n">
+      <c r="N37" s="3" t="n">
         <v>44342.6875</v>
       </c>
-      <c r="O36" s="3" t="n">
+      <c r="O37" s="3" t="n">
         <v>44348.688888888886</v>
       </c>
-      <c r="P36"/>
-      <c r="Q36" s="5" t="n">
+      <c r="P37"/>
+      <c r="Q37" s="5" t="n">
         <v>1.1180555555555556</v>
       </c>
-      <c r="R36" s="1" t="inlineStr">
+      <c r="R37" s="1" t="inlineStr">
         <is>
           <t>21/05/2021 16:40 Atualizado pelo Sistema: 
 Cooperativa: 3055 - PAC: 00 - SICOOB COOPERCRED
@@ -3384,86 +3473,86 @@
 21/05/2021...</t>
         </is>
       </c>
-      <c r="S36" s="1" t="inlineStr">
+      <c r="S37" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 16:30 PEDRO LEONARDO LONGHIN SILVA: 
 Prezado Marcos, conforme alinhado com o Cacio, foi visto que alguns Pleitos d...</t>
         </is>
       </c>
-      <c r="T36" s="1" t="inlineStr">
+      <c r="T37" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 16:30 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>I2105-259734</t>
         </is>
       </c>
-      <c r="B37" s="6" t="inlineStr">
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>MARCOS VINICIUS DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>Aguardando atendimento</t>
         </is>
       </c>
-      <c r="D37" s="6" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>3055 - PAC: 00 - SICOOB COOPERCRED</t>
         </is>
       </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="F37" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
         <v>0</v>
       </c>
-      <c r="H37" t="b">
+      <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="I37" s="6" t="inlineStr">
+      <c r="I38" s="6" t="inlineStr">
         <is>
           <t>2015. Institucional</t>
         </is>
       </c>
-      <c r="J37" s="6" t="inlineStr">
+      <c r="J38" s="6" t="inlineStr">
         <is>
           <t>Cadastro e atualização de PA</t>
         </is>
       </c>
-      <c r="K37" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L37" s="6" t="inlineStr">
+      <c r="K38" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L38" s="6" t="inlineStr">
         <is>
           <t>Registrado</t>
         </is>
       </c>
-      <c r="M37" s="3" t="n">
+      <c r="M38" s="3" t="n">
         <v>44344.38748842593</v>
       </c>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37" s="5" t="n">
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37" s="1" t="inlineStr">
+      <c r="R38" s="1" t="inlineStr">
         <is>
           <t>28/05/2021 09:18 Atualizado pelo Sistema: 
 Cooperativa: 3055 - PAC: 00 - SICOOB COOPERCRED
@@ -3471,90 +3560,90 @@
 28/05/2021...</t>
         </is>
       </c>
-      <c r="S37" s="1" t="inlineStr">
+      <c r="S38" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 10:15 Atualizado pelo Sistema: 
 Grupo de operadores alterado de: 2015 - Institucional (2015 - PAC: 00 - SICOOBUNI)...</t>
         </is>
       </c>
-      <c r="T37" s="1" t="inlineStr">
+      <c r="T38" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 10:15 Atualizado pelo Sistema: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' width=...</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>I2106-150029</t>
         </is>
       </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>MARCOS VINICIUS DE OLIVEIRA</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t>3055 - PAC: 00 - SICOOB COOPERCRED</t>
         </is>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6" t="inlineStr">
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J38" s="6" t="inlineStr">
+      <c r="J39" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K38" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L38" s="6" t="inlineStr">
+      <c r="K39" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L39" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M38" s="3" t="n">
+      <c r="M39" s="3" t="n">
         <v>44363.656875</v>
       </c>
-      <c r="N38" s="3" t="n">
+      <c r="N39" s="3" t="n">
         <v>44371.67152777778</v>
       </c>
-      <c r="O38" s="3" t="n">
+      <c r="O39" s="3" t="n">
         <v>44377.67291666667</v>
       </c>
-      <c r="P38"/>
-      <c r="Q38" s="5" t="n">
+      <c r="P39"/>
+      <c r="Q39" s="5" t="n">
         <v>2.2652777777777775</v>
       </c>
-      <c r="R38" s="1" t="inlineStr">
+      <c r="R39" s="1" t="inlineStr">
         <is>
           <t>16/06/2021 15:45 Atualizado pelo Sistema: 
 Cooperativa: 3055 - PAC: 00 - SICOOB COOPERCRED
@@ -3562,91 +3651,91 @@
 16/06/2021...</t>
         </is>
       </c>
-      <c r="S38" s="1" t="inlineStr">
+      <c r="S39" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 16:08 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, prezado Marcos! 
 Segue o link do relatório com  da proposta de s...</t>
         </is>
       </c>
-      <c r="T38" s="1" t="inlineStr">
+      <c r="T39" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 16:08 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
         <is>
           <t>I2104-233207</t>
         </is>
       </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>MATIAS CASTRO MATOS</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6" t="inlineStr">
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J39" s="6" t="inlineStr">
+      <c r="J40" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K39" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L39" s="6" t="inlineStr">
+      <c r="K40" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L40" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M39" s="3" t="n">
+      <c r="M40" s="3" t="n">
         <v>44314.60512731481</v>
       </c>
-      <c r="N39" s="3" t="n">
+      <c r="N40" s="3" t="n">
         <v>44334.36875</v>
       </c>
-      <c r="O39" s="3" t="n">
+      <c r="O40" s="3" t="n">
         <v>44340.36944444444</v>
       </c>
-      <c r="P39"/>
-      <c r="Q39" s="5" t="n">
+      <c r="P40"/>
+      <c r="Q40" s="5" t="n">
         <v>5.020138888888889</v>
       </c>
-      <c r="R39" s="1" t="inlineStr">
+      <c r="R40" s="1" t="inlineStr">
         <is>
           <t>28/04/2021 14:31 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -3654,7 +3743,7 @@
 28/04/2021 14:31 MA...</t>
         </is>
       </c>
-      <c r="S39" s="1" t="inlineStr">
+      <c r="S40" s="1" t="inlineStr">
         <is>
           <t>18/05/2021 08:51 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
@@ -3662,84 +3751,84 @@
 "A sol...</t>
         </is>
       </c>
-      <c r="T39" s="1" t="inlineStr">
+      <c r="T40" s="1" t="inlineStr">
         <is>
           <t>18/05/2021 08:51 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
         <is>
           <t>I2104-180851</t>
         </is>
       </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="B41" s="6" t="inlineStr">
         <is>
           <t>MAXWEL BRAZ PIMENTEL</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>5014 - PAC: 00 - SICOOB UNICIDADES</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
         <is>
           <t>PEDRO LEONARDO LONGHIN SILVA</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="6" t="inlineStr">
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J40" s="6" t="inlineStr">
+      <c r="J41" s="6" t="inlineStr">
         <is>
           <t>Juros ao Capital</t>
         </is>
       </c>
-      <c r="K40" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L40" s="6" t="inlineStr">
+      <c r="K41" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L41" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M40" s="3" t="n">
+      <c r="M41" s="3" t="n">
         <v>44308.61498842593</v>
       </c>
-      <c r="N40" s="3" t="n">
+      <c r="N41" s="3" t="n">
         <v>44313.65347222222</v>
       </c>
-      <c r="O40" s="3" t="n">
+      <c r="O41" s="3" t="n">
         <v>44323.722766203704</v>
       </c>
-      <c r="P40"/>
-      <c r="Q40" s="5" t="n">
+      <c r="P41"/>
+      <c r="Q41" s="5" t="n">
         <v>1.1638888888888888</v>
       </c>
-      <c r="R40" s="1" t="inlineStr">
+      <c r="R41" s="1" t="inlineStr">
         <is>
           <t>22/04/2021 14:45 Atualizado pelo Sistema: 
 Cooperativa: 5014 - PAC: 00 - UNISAÚDE GOIÁS
@@ -3747,90 +3836,90 @@
 22/04/2021 1...</t>
         </is>
       </c>
-      <c r="S40" s="1" t="inlineStr">
+      <c r="S41" s="1" t="inlineStr">
         <is>
           <t>27/04/2021 16:10 PEDRO LEONARDO LONGHIN SILVA: 
 Segundo o estatuto social da 5014 - Unicidades, os Art. 09 e Art. 29 se compl...</t>
         </is>
       </c>
-      <c r="T40" s="1" t="inlineStr">
+      <c r="T41" s="1" t="inlineStr">
         <is>
           <t>27/04/2021 16:10 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.attachment/16' style='vertical-align: text-bot...</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>I2106-062882</t>
         </is>
       </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>Mayara Prado Imada</t>
         </is>
       </c>
-      <c r="C41" s="6" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>3350 - PAC: 00 - SICOOB COOPREM</t>
         </is>
       </c>
-      <c r="E41" s="6" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="6" t="inlineStr">
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J41" s="6" t="inlineStr">
+      <c r="J42" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K41" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L41" s="6" t="inlineStr">
+      <c r="K42" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L42" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M41" s="3" t="n">
+      <c r="M42" s="3" t="n">
         <v>44355.46450231481</v>
       </c>
-      <c r="N41" s="3" t="n">
+      <c r="N42" s="3" t="n">
         <v>44356.41180555556</v>
       </c>
-      <c r="O41" s="3" t="n">
+      <c r="O42" s="3" t="n">
         <v>44362.41388888889</v>
       </c>
-      <c r="P41"/>
-      <c r="Q41" s="5" t="n">
+      <c r="P42"/>
+      <c r="Q42" s="5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c r="R41" s="1" t="inlineStr">
+      <c r="R42" s="1" t="inlineStr">
         <is>
           <t>08/06/2021 11:08 Atualizado pelo Sistema: 
 Cooperativa: 3350 - PAC: 00 - SICOOB COOPREM
@@ -3838,91 +3927,91 @@
 08/06/2021 11...</t>
         </is>
       </c>
-      <c r="S41" s="1" t="inlineStr">
+      <c r="S42" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 09:54 PAULO HENRIQUE BRASIL RIBEIRO: 
 . 10 maiores devedores atualizados por dia;
        Aba Carteira estratificad...</t>
         </is>
       </c>
-      <c r="T41" s="1" t="inlineStr">
+      <c r="T42" s="1" t="inlineStr">
         <is>
           <t>09/06/2021 09:54 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
         <is>
           <t>I2105-228851</t>
         </is>
       </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="B43" s="6" t="inlineStr">
         <is>
           <t>MONICA DA CONCEIÇAO GOMES</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>5631 - PAC: 00 - SICOOB UNI SUDESTE</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
+      <c r="E43" s="6" t="inlineStr">
         <is>
           <t>PEDRO LEONARDO LONGHIN SILVA</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="6" t="inlineStr">
+      <c r="F43" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J42" s="6" t="inlineStr">
+      <c r="J43" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K42" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L42" s="6" t="inlineStr">
+      <c r="K43" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L43" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M42" s="3" t="n">
+      <c r="M43" s="3" t="n">
         <v>44341.66438657408</v>
       </c>
-      <c r="N42" s="3" t="n">
+      <c r="N43" s="3" t="n">
         <v>44342.64166666667</v>
       </c>
-      <c r="O42" s="3" t="n">
+      <c r="O43" s="3" t="n">
         <v>44348.643055555556</v>
       </c>
-      <c r="P42"/>
-      <c r="Q42" s="5" t="n">
+      <c r="P43"/>
+      <c r="Q43" s="5" t="n">
         <v>0.3527777777777778</v>
       </c>
-      <c r="R42" s="1" t="inlineStr">
+      <c r="R43" s="1" t="inlineStr">
         <is>
           <t>25/05/2021 15:56 MONICA DA CONCEIÇAO GOMES: 
 Descrição:
@@ -3930,90 +4019,90 @@
 Venho por meio deste solicitar que seja efetuado a mig...</t>
         </is>
       </c>
-      <c r="S42" s="1" t="inlineStr">
+      <c r="S43" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 15:25 PEDRO LEONARDO LONGHIN SILVA: 
 Conforme informado no chamado I2105-229361, que consta com o mesmo conteúdo p...</t>
         </is>
       </c>
-      <c r="T42" s="1" t="inlineStr">
+      <c r="T43" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 15:25 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
         <is>
           <t>I2105-229361</t>
         </is>
       </c>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="B44" s="6" t="inlineStr">
         <is>
           <t>MONICA DA CONCEIÇAO GOMES</t>
         </is>
       </c>
-      <c r="C43" s="6" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D43" s="6" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>5631 - PAC: 00 - SICOOB UNI SUDESTE</t>
         </is>
       </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="E44" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="6" t="inlineStr">
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J43" s="6" t="inlineStr">
+      <c r="J44" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K43" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L43" s="6" t="inlineStr">
+      <c r="K44" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L44" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M43" s="3" t="n">
+      <c r="M44" s="3" t="n">
         <v>44341.68016203704</v>
       </c>
-      <c r="N43" s="3" t="n">
+      <c r="N44" s="3" t="n">
         <v>44342.600694444445</v>
       </c>
-      <c r="O43" s="3" t="n">
+      <c r="O44" s="3" t="n">
         <v>44348.60208333333</v>
       </c>
-      <c r="P43"/>
-      <c r="Q43" s="5" t="n">
+      <c r="P44"/>
+      <c r="Q44" s="5" t="n">
         <v>0.29583333333333334</v>
       </c>
-      <c r="R43" s="1" t="inlineStr">
+      <c r="R44" s="1" t="inlineStr">
         <is>
           <t>25/05/2021 16:19 Atualizado pelo Sistema: 
 Cooperativa: 5631 - PAC: 00 - UNISAÚDE SUDESTE
@@ -4021,87 +4110,87 @@
 25/05/2021...</t>
         </is>
       </c>
-      <c r="S43" s="1" t="inlineStr">
+      <c r="S44" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 14:25 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Usuário incluído no grupo...</t>
         </is>
       </c>
-      <c r="T43" s="1" t="inlineStr">
+      <c r="T44" s="1" t="inlineStr">
         <is>
           <t>26/05/2021 14:25 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>I2106-261936</t>
         </is>
       </c>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="B45" s="6" t="inlineStr">
         <is>
           <t>MONICA DA CONCEIÇAO GOMES</t>
         </is>
       </c>
-      <c r="C44" s="6" t="inlineStr">
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>Alterado pelo solicitante</t>
         </is>
       </c>
-      <c r="D44" s="6" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t>5631 - PAC: 00 - SICOOB UNI SUDESTE</t>
         </is>
       </c>
-      <c r="E44" s="6" t="inlineStr">
+      <c r="E45" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
         <v>0</v>
       </c>
-      <c r="H44" t="b">
+      <c r="H45" t="b">
         <v>0</v>
       </c>
-      <c r="I44" s="6" t="inlineStr">
+      <c r="I45" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J44" s="6" t="inlineStr">
+      <c r="J45" s="6" t="inlineStr">
         <is>
           <t>Sobras</t>
         </is>
       </c>
-      <c r="K44" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L44" s="6" t="inlineStr">
+      <c r="K45" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L45" s="6" t="inlineStr">
         <is>
           <t>Respondido</t>
         </is>
       </c>
-      <c r="M44" s="3" t="n">
+      <c r="M45" s="3" t="n">
         <v>44376.46600694444</v>
       </c>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44" s="5" t="n">
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="R44" s="1" t="inlineStr">
+      <c r="R45" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 11:11 Atualizado pelo Sistema: 
 Cooperativa: 5631 - PAC: 00 - UNISAÚDE SUDESTE
@@ -4109,95 +4198,95 @@
 29/06/2021...</t>
         </is>
       </c>
-      <c r="S44" s="1" t="inlineStr">
+      <c r="S45" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 12:05 MONICA DA CONCEIÇAO GOMES: 
 Segue em anexo alista das sobras não creditadas,
 06/07/2021 08:20 PAULO HENRIQU...</t>
         </is>
       </c>
-      <c r="T44" s="1" t="inlineStr">
+      <c r="T45" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 12:05 Portal de Servi&amp;ccedil;os do CCS  &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' s...</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
         <is>
           <t>I2106-228912</t>
         </is>
       </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="B46" s="6" t="inlineStr">
         <is>
           <t>Nayara Alves Silva</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D45" s="6" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>5038 - PAC: 00 - SICOOB UNIRBO</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
+      <c r="E46" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6" t="inlineStr">
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J45" s="6" t="inlineStr">
+      <c r="J46" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K45" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L45" s="6" t="inlineStr">
+      <c r="K46" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L46" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M45" s="3" t="n">
+      <c r="M46" s="3" t="n">
         <v>44371.70903935185</v>
       </c>
-      <c r="N45" s="3" t="n">
+      <c r="N46" s="3" t="n">
         <v>44383.4839315162</v>
       </c>
-      <c r="O45" s="3" t="n">
+      <c r="O46" s="3" t="n">
         <v>44383.4839315162</v>
       </c>
-      <c r="P45" s="6" t="inlineStr">
+      <c r="P46" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q45" s="5" t="n">
+      <c r="Q46" s="5" t="n">
         <v>2.774305555555556</v>
       </c>
-      <c r="R45" s="1" t="inlineStr">
+      <c r="R46" s="1" t="inlineStr">
         <is>
           <t>24/06/2021 17:01 Atualizado pelo Sistema: 
 Cooperativa: 5038 - PAC: 00 - UNIRBO
@@ -4205,91 +4294,91 @@
 24/06/2021 17:01 Nayar...</t>
         </is>
       </c>
-      <c r="S45" s="1" t="inlineStr">
+      <c r="S46" s="1" t="inlineStr">
         <is>
           <t>06/07/2021 10:16 PAULO HENRIQUE BRASIL RIBEIRO: 
 Bom dia, Nayara!
 Temos essa colunas que podem ser adicionados no relatório....</t>
         </is>
       </c>
-      <c r="T45" s="1" t="inlineStr">
+      <c r="T46" s="1" t="inlineStr">
         <is>
           <t>06/07/2021 10:16 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
         <is>
           <t>I2104-045733</t>
         </is>
       </c>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="B47" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="C46" s="6" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D46" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E46" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="F46" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="6" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J46" s="6" t="inlineStr">
+      <c r="J47" s="6" t="inlineStr">
         <is>
           <t>Estudos Estratégicos</t>
         </is>
       </c>
-      <c r="K46" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L46" s="6" t="inlineStr">
+      <c r="K47" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L47" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M46" s="3" t="n">
+      <c r="M47" s="3" t="n">
         <v>44293.43986111111</v>
       </c>
-      <c r="N46" s="3" t="n">
+      <c r="N47" s="3" t="n">
         <v>44293.475</v>
       </c>
-      <c r="O46" s="3" t="n">
+      <c r="O47" s="3" t="n">
         <v>44299.47638888889</v>
       </c>
-      <c r="P46"/>
-      <c r="Q46" s="5" t="n">
+      <c r="P47"/>
+      <c r="Q47" s="5" t="n">
         <v>0.035416666666666666</v>
       </c>
-      <c r="R46" s="1" t="inlineStr">
+      <c r="R47" s="1" t="inlineStr">
         <is>
           <t>07/04/2021 10:33 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -4297,90 +4386,90 @@
 07/04/2021 10:33...</t>
         </is>
       </c>
-      <c r="S46" s="1" t="inlineStr">
+      <c r="S47" s="1" t="inlineStr">
         <is>
           <t>07/04/2021 11:25 PAULO HENRIQUE BRASIL RIBEIRO: 
 Testado</t>
         </is>
       </c>
-      <c r="T46" s="1" t="inlineStr">
+      <c r="T47" s="1" t="inlineStr">
         <is>
           <t>07/04/2021 11:25 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
         <is>
           <t>I2106-024481</t>
         </is>
       </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>PRISCILA DA SILVA</t>
         </is>
       </c>
-      <c r="C47" s="6" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D47" s="6" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>5018 - PAC: 00 - SICOOB UNIRONDÔNIA</t>
         </is>
       </c>
-      <c r="E47" s="6" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
         <is>
           <t>PEDRO LEONARDO LONGHIN SILVA</t>
         </is>
       </c>
-      <c r="F47" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J47" s="6" t="inlineStr">
+      <c r="J48" s="6" t="inlineStr">
         <is>
           <t>Juros ao Capital</t>
         </is>
       </c>
-      <c r="K47" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L47" s="6" t="inlineStr">
+      <c r="K48" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L48" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M47" s="3" t="n">
+      <c r="M48" s="3" t="n">
         <v>44349.658738425926</v>
       </c>
-      <c r="N47" s="3" t="n">
+      <c r="N48" s="3" t="n">
         <v>44354.38402777778</v>
       </c>
-      <c r="O47" s="3" t="n">
+      <c r="O48" s="3" t="n">
         <v>44360.385416666664</v>
       </c>
-      <c r="P47"/>
-      <c r="Q47" s="5" t="n">
+      <c r="P48"/>
+      <c r="Q48" s="5" t="n">
         <v>0.4756944444444445</v>
       </c>
-      <c r="R47" s="1" t="inlineStr">
+      <c r="R48" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 15:48 Atualizado pelo Sistema: 
 Cooperativa: 5018 - PAC: 00 - SICOOB UNIRONDÔNIA
@@ -4388,95 +4477,95 @@
 02/06/2021...</t>
         </is>
       </c>
-      <c r="S47" s="1" t="inlineStr">
+      <c r="S48" s="1" t="inlineStr">
         <is>
           <t>07/06/2021 09:10 PEDRO LEONARDO LONGHIN SILVA: 
 Olá Priscila, bom dia!
 Tentei o contato via teams no dia 04 de junho para con...</t>
         </is>
       </c>
-      <c r="T47" s="1" t="inlineStr">
+      <c r="T48" s="1" t="inlineStr">
         <is>
           <t>07/06/2021 09:14 PEDRO LEONARDO LONGHIN SILVA: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom' w...</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
         <is>
           <t>I2104-162663</t>
         </is>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B49" s="6" t="inlineStr">
         <is>
           <t>RAFAEL SILVA ARANTES</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>3343 - PAC: 00 - SICOOB EMPRESARIAL</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6" t="inlineStr">
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J48" s="6" t="inlineStr">
+      <c r="J49" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K48" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L48" s="6" t="inlineStr">
+      <c r="K49" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L49" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M48" s="3" t="n">
+      <c r="M49" s="3" t="n">
         <v>44306.44173611111</v>
       </c>
-      <c r="N48" s="3" t="n">
+      <c r="N49" s="3" t="n">
         <v>44312.549710879626</v>
       </c>
-      <c r="O48" s="3" t="n">
+      <c r="O49" s="3" t="n">
         <v>44312.549710879626</v>
       </c>
-      <c r="P48" s="6" t="inlineStr">
+      <c r="P49" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q48" s="5" t="n">
+      <c r="Q49" s="5" t="n">
         <v>1.2326388888888888</v>
       </c>
-      <c r="R48" s="1" t="inlineStr">
+      <c r="R49" s="1" t="inlineStr">
         <is>
           <t>20/04/2021 10:36 Atualizado pelo Sistema: 
 Cooperativa: 3343 - PAC: 00 - SICOOB EMPRESARIAL
@@ -4484,7 +4573,7 @@
 20/04/2...</t>
         </is>
       </c>
-      <c r="S48" s="1" t="inlineStr">
+      <c r="S49" s="1" t="inlineStr">
         <is>
           <t>26/04/2021 13:11 RAFAEL SILVA ARANTES: 
 ok
@@ -4492,82 +4581,82 @@
 ME - Planejamento e Desenvolvime...</t>
         </is>
       </c>
-      <c r="T48" s="1" t="inlineStr">
+      <c r="T49" s="1" t="inlineStr">
         <is>
           <t>24/04/2021 14:41 Portal de Servi&amp;ccedil;os do CCS  &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' s...</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="6" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
         <is>
           <t>I2106-258905</t>
         </is>
       </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B50" s="6" t="inlineStr">
         <is>
           <t>Raul Osorio Marques Lacerda</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>Resolvido</t>
         </is>
       </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>3299 - PAC: 00 - SICOOB ENGECRED</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E50" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="b">
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
         <v>0</v>
       </c>
-      <c r="I49" s="6" t="inlineStr">
+      <c r="I50" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J49" s="6" t="inlineStr">
+      <c r="J50" s="6" t="inlineStr">
         <is>
           <t>Plano de Expansão</t>
         </is>
       </c>
-      <c r="K49" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L49" s="6" t="inlineStr">
+      <c r="K50" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L50" s="6" t="inlineStr">
         <is>
           <t>Resolvido</t>
         </is>
       </c>
-      <c r="M49" s="3" t="n">
+      <c r="M50" s="3" t="n">
         <v>44376.37174768518</v>
       </c>
-      <c r="N49" s="3" t="n">
+      <c r="N50" s="3" t="n">
         <v>44389.711805555555</v>
       </c>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49" s="5" t="n">
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50" s="5" t="n">
         <v>3.711805555555556</v>
       </c>
-      <c r="R49" s="1" t="inlineStr">
+      <c r="R50" s="1" t="inlineStr">
         <is>
           <t>29/06/2021 08:55 Raul Osorio Marques Lacerda: 
 Descrição:
@@ -4575,87 +4664,87 @@
 Solicito a transferência da licença do Sisbr analítico...</t>
         </is>
       </c>
-      <c r="S49" s="1" t="inlineStr">
+      <c r="S50" s="1" t="inlineStr">
         <is>
           <t>12/07/2021 17:07 PAULO HENRIQUE BRASIL RIBEIRO: 
 Boa tarde, Raul.
 No momento não é possível, pois o CCS não dispõe de licenç...</t>
         </is>
       </c>
-      <c r="T49" s="1" t="inlineStr">
+      <c r="T50" s="1" t="inlineStr">
         <is>
           <t>12/07/2021 17:07 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>I2107-081072</t>
         </is>
       </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="B51" s="6" t="inlineStr">
         <is>
           <t>RAYANE ARAUJO SOUSA</t>
         </is>
       </c>
-      <c r="C50" s="6" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>Em atendimento</t>
         </is>
       </c>
-      <c r="D50" s="6" t="inlineStr">
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t>3299 - PAC: 00 - SICOOB ENGECRED</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
         <is>
           <t>Kaique Ferreira Henrique de Souza</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
         <v>0</v>
       </c>
-      <c r="H50" t="b">
+      <c r="H51" t="b">
         <v>0</v>
       </c>
-      <c r="I50" s="6" t="inlineStr">
+      <c r="I51" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J50" s="6" t="inlineStr">
+      <c r="J51" s="6" t="inlineStr">
         <is>
           <t>Plano de Expansão</t>
         </is>
       </c>
-      <c r="K50" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L50" s="6" t="inlineStr">
+      <c r="K51" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L51" s="6" t="inlineStr">
         <is>
           <t>Registrado</t>
         </is>
       </c>
-      <c r="M50" s="3" t="n">
+      <c r="M51" s="3" t="n">
         <v>44385.65008101852</v>
       </c>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50" s="5" t="n">
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="R50" s="1" t="inlineStr">
+      <c r="R51" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 15:36 RAYANE ARAUJO SOUSA: 
 Assunto:
@@ -4665,85 +4754,85 @@
 Seguindo nosso plano de expansão,...</t>
         </is>
       </c>
-      <c r="S50"/>
-      <c r="T50" s="1" t="inlineStr">
+      <c r="S51"/>
+      <c r="T51" s="1" t="inlineStr">
         <is>
           <t>08/07/2021 15:38 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="6" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
         <is>
           <t>I2106-201204</t>
         </is>
       </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="B52" s="6" t="inlineStr">
         <is>
           <t>SHEILA LUIZA CAVALCANTE</t>
         </is>
       </c>
-      <c r="C51" s="6" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>5004 - PAC: 00 - SICOOB UNICENTRO BRASILEIRA</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="6" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6" t="inlineStr">
         <is>
           <t>2015. Planos Expa.Plane Estrat</t>
         </is>
       </c>
-      <c r="J51" s="6" t="inlineStr">
+      <c r="J52" s="6" t="inlineStr">
         <is>
           <t>Plano de Expansão</t>
         </is>
       </c>
-      <c r="K51" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L51" s="6" t="inlineStr">
+      <c r="K52" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L52" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M51" s="3" t="n">
+      <c r="M52" s="3" t="n">
         <v>44369.63563657407</v>
       </c>
-      <c r="N51" s="3" t="n">
+      <c r="N52" s="3" t="n">
         <v>44370.67361111111</v>
       </c>
-      <c r="O51" s="3" t="n">
+      <c r="O52" s="3" t="n">
         <v>44376.675</v>
       </c>
-      <c r="P51"/>
-      <c r="Q51" s="5" t="n">
+      <c r="P52"/>
+      <c r="Q52" s="5" t="n">
         <v>0.4131944444444445</v>
       </c>
-      <c r="R51" s="1" t="inlineStr">
+      <c r="R52" s="1" t="inlineStr">
         <is>
           <t>22/06/2021 15:15 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
@@ -4751,106 +4840,24 @@
 22/06/...</t>
         </is>
       </c>
-      <c r="S51" s="1" t="inlineStr">
+      <c r="S52" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 16:11 Kaique Ferreira Henrique de Souza: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Prezados(as), boa tarde...</t>
         </is>
       </c>
-      <c r="T51" s="1" t="inlineStr">
+      <c r="T52" s="1" t="inlineStr">
         <is>
           <t>23/06/2021 16:11 Kaique Ferreira Henrique de Souza: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bott...</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>I2106-201251</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>SHEILA LUIZA CAVALCANTE</t>
-        </is>
-      </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>Em atendimento</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>5004 - PAC: 00 - SICOOB UNICENTRO BRASILEIRA</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="inlineStr">
-        <is>
-          <t>Kaique Ferreira Henrique de Souza</t>
-        </is>
-      </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6" t="inlineStr">
-        <is>
-          <t>2015. Planos Expa.Plane Estrat</t>
-        </is>
-      </c>
-      <c r="J52" s="6" t="inlineStr">
-        <is>
-          <t>Plano de Expansão</t>
-        </is>
-      </c>
-      <c r="K52" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L52" s="6" t="inlineStr">
-        <is>
-          <t>Registrado</t>
-        </is>
-      </c>
-      <c r="M52" s="3" t="n">
-        <v>44369.637025462966</v>
-      </c>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R52" s="1" t="inlineStr">
-        <is>
-          <t>22/06/2021 15:17 Atualizado pelo Sistema: 
-Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
-Telefone: (62) 32212022
-22/06/...</t>
-        </is>
-      </c>
-      <c r="S52"/>
-      <c r="T52" s="1" t="inlineStr">
-        <is>
-          <t>22/06/2021 15:19 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
-&lt;img src='/icons/progresstrail.mail/16' st...</t>
-        </is>
-      </c>
-    </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>I2106-209539</t>
+          <t>I2106-201251</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr">
@@ -4905,7 +4912,7 @@
         </is>
       </c>
       <c r="M53" s="3" t="n">
-        <v>44370.45199074074</v>
+        <v>44369.637025462966</v>
       </c>
       <c r="N53"/>
       <c r="O53"/>
@@ -4915,16 +4922,16 @@
       </c>
       <c r="R53" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 10:50 Atualizado pelo Sistema: 
+          <t>22/06/2021 15:17 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
-23/06/...</t>
+22/06/...</t>
         </is>
       </c>
       <c r="S53"/>
       <c r="T53" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 10:52 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>22/06/2021 15:19 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -4932,7 +4939,7 @@
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
-          <t>I2106-209605</t>
+          <t>I2106-209539</t>
         </is>
       </c>
       <c r="B54" s="6" t="inlineStr">
@@ -4987,7 +4994,7 @@
         </is>
       </c>
       <c r="M54" s="3" t="n">
-        <v>44370.45414351852</v>
+        <v>44370.45199074074</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -4997,7 +5004,7 @@
       </c>
       <c r="R54" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 10:54 Atualizado pelo Sistema: 
+          <t>23/06/2021 10:50 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 23/06/...</t>
@@ -5006,7 +5013,7 @@
       <c r="S54"/>
       <c r="T54" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 10:55 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>23/06/2021 10:52 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5014,7 +5021,7 @@
     <row r="55">
       <c r="A55" s="6" t="inlineStr">
         <is>
-          <t>I2106-209694</t>
+          <t>I2106-209605</t>
         </is>
       </c>
       <c r="B55" s="6" t="inlineStr">
@@ -5069,7 +5076,7 @@
         </is>
       </c>
       <c r="M55" s="3" t="n">
-        <v>44370.456828703704</v>
+        <v>44370.45414351852</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -5079,7 +5086,7 @@
       </c>
       <c r="R55" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 10:57 Atualizado pelo Sistema: 
+          <t>23/06/2021 10:54 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 23/06/...</t>
@@ -5088,7 +5095,7 @@
       <c r="S55"/>
       <c r="T55" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 10:59 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>23/06/2021 10:55 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5096,7 +5103,7 @@
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>I2106-209721</t>
+          <t>I2106-209694</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
@@ -5151,7 +5158,7 @@
         </is>
       </c>
       <c r="M56" s="3" t="n">
-        <v>44370.45768518518</v>
+        <v>44370.456828703704</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -5161,7 +5168,7 @@
       </c>
       <c r="R56" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 10:59 Atualizado pelo Sistema: 
+          <t>23/06/2021 10:57 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 23/06/...</t>
@@ -5170,7 +5177,7 @@
       <c r="S56"/>
       <c r="T56" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 11:00 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>23/06/2021 10:59 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5178,7 +5185,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>I2106-209742</t>
+          <t>I2106-209721</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr">
@@ -5233,7 +5240,7 @@
         </is>
       </c>
       <c r="M57" s="3" t="n">
-        <v>44370.45826388889</v>
+        <v>44370.45768518518</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
@@ -5252,7 +5259,7 @@
       <c r="S57"/>
       <c r="T57" s="1" t="inlineStr">
         <is>
-          <t>23/06/2021 11:02 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>23/06/2021 11:00 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5260,7 +5267,7 @@
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>I2107-067436</t>
+          <t>I2106-209742</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
@@ -5270,7 +5277,7 @@
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>Aguardando atendimento</t>
+          <t>Em atendimento</t>
         </is>
       </c>
       <c r="D58" s="6" t="inlineStr">
@@ -5315,7 +5322,7 @@
         </is>
       </c>
       <c r="M58" s="3" t="n">
-        <v>44384.64949074074</v>
+        <v>44370.45826388889</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -5325,16 +5332,16 @@
       </c>
       <c r="R58" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:35 Atualizado pelo Sistema: 
+          <t>23/06/2021 10:59 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
-07/07/...</t>
+23/06/...</t>
         </is>
       </c>
       <c r="S58"/>
       <c r="T58" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:37 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>23/06/2021 11:02 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5342,7 +5349,7 @@
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
         <is>
-          <t>I2107-067519</t>
+          <t>I2107-067436</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr">
@@ -5397,7 +5404,7 @@
         </is>
       </c>
       <c r="M59" s="3" t="n">
-        <v>44384.65207175926</v>
+        <v>44384.64949074074</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -5407,7 +5414,7 @@
       </c>
       <c r="R59" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:39 Atualizado pelo Sistema: 
+          <t>07/07/2021 15:35 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
@@ -5416,7 +5423,7 @@
       <c r="S59"/>
       <c r="T59" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:40 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>07/07/2021 15:37 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5424,7 +5431,7 @@
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>I2107-067576</t>
+          <t>I2107-067519</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
@@ -5444,7 +5451,7 @@
       </c>
       <c r="E60" s="6" t="inlineStr">
         <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
+          <t>Kaique Ferreira Henrique de Souza</t>
         </is>
       </c>
       <c r="F60" s="6" t="inlineStr">
@@ -5479,7 +5486,7 @@
         </is>
       </c>
       <c r="M60" s="3" t="n">
-        <v>44384.65390046296</v>
+        <v>44384.65207175926</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
@@ -5489,7 +5496,7 @@
       </c>
       <c r="R60" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:41 Atualizado pelo Sistema: 
+          <t>07/07/2021 15:39 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
@@ -5498,7 +5505,7 @@
       <c r="S60"/>
       <c r="T60" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:43 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>07/07/2021 15:40 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5506,7 +5513,7 @@
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>I2107-067614</t>
+          <t>I2107-067576</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
@@ -5561,7 +5568,7 @@
         </is>
       </c>
       <c r="M61" s="3" t="n">
-        <v>44384.65466435185</v>
+        <v>44384.65390046296</v>
       </c>
       <c r="N61"/>
       <c r="O61"/>
@@ -5571,7 +5578,7 @@
       </c>
       <c r="R61" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:42 Atualizado pelo Sistema: 
+          <t>07/07/2021 15:41 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
@@ -5580,7 +5587,7 @@
       <c r="S61"/>
       <c r="T61" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:44 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>07/07/2021 15:43 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5588,7 +5595,7 @@
     <row r="62">
       <c r="A62" s="6" t="inlineStr">
         <is>
-          <t>I2107-067628</t>
+          <t>I2107-067614</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
@@ -5643,7 +5650,7 @@
         </is>
       </c>
       <c r="M62" s="3" t="n">
-        <v>44384.65523148148</v>
+        <v>44384.65466435185</v>
       </c>
       <c r="N62"/>
       <c r="O62"/>
@@ -5653,7 +5660,7 @@
       </c>
       <c r="R62" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:43 Atualizado pelo Sistema: 
+          <t>07/07/2021 15:42 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
@@ -5662,7 +5669,7 @@
       <c r="S62"/>
       <c r="T62" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:45 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>07/07/2021 15:44 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5670,7 +5677,7 @@
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>I2107-067654</t>
+          <t>I2107-067628</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
@@ -5690,7 +5697,7 @@
       </c>
       <c r="E63" s="6" t="inlineStr">
         <is>
-          <t>Kaique Ferreira Henrique de Souza</t>
+          <t>2015 - Desenvolvimento Estratégico</t>
         </is>
       </c>
       <c r="F63" s="6" t="inlineStr">
@@ -5725,7 +5732,7 @@
         </is>
       </c>
       <c r="M63" s="3" t="n">
-        <v>44384.655856481484</v>
+        <v>44384.65523148148</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -5735,7 +5742,7 @@
       </c>
       <c r="R63" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:44 Atualizado pelo Sistema: 
+          <t>07/07/2021 15:43 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
@@ -5744,7 +5751,7 @@
       <c r="S63"/>
       <c r="T63" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:46 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>07/07/2021 15:45 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5752,7 +5759,7 @@
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>I2107-067667</t>
+          <t>I2107-067654</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
@@ -5772,7 +5779,7 @@
       </c>
       <c r="E64" s="6" t="inlineStr">
         <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
+          <t>Kaique Ferreira Henrique de Souza</t>
         </is>
       </c>
       <c r="F64" s="6" t="inlineStr">
@@ -5807,7 +5814,7 @@
         </is>
       </c>
       <c r="M64" s="3" t="n">
-        <v>44384.656377314815</v>
+        <v>44384.655856481484</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -5817,7 +5824,7 @@
       </c>
       <c r="R64" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:45 Atualizado pelo Sistema: 
+          <t>07/07/2021 15:44 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
@@ -5826,7 +5833,7 @@
       <c r="S64"/>
       <c r="T64" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:47 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>07/07/2021 15:46 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5834,7 +5841,7 @@
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>I2107-067694</t>
+          <t>I2107-067667</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
@@ -5889,7 +5896,7 @@
         </is>
       </c>
       <c r="M65" s="3" t="n">
-        <v>44384.65712962963</v>
+        <v>44384.656377314815</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -5899,7 +5906,7 @@
       </c>
       <c r="R65" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:46 Atualizado pelo Sistema: 
+          <t>07/07/2021 15:45 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
@@ -5908,7 +5915,7 @@
       <c r="S65"/>
       <c r="T65" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:48 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>07/07/2021 15:47 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5916,7 +5923,7 @@
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>I2107-067721</t>
+          <t>I2107-067694</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
@@ -5971,7 +5978,7 @@
         </is>
       </c>
       <c r="M66" s="3" t="n">
-        <v>44384.65788194445</v>
+        <v>44384.65712962963</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -5981,7 +5988,7 @@
       </c>
       <c r="R66" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:47 Atualizado pelo Sistema: 
+          <t>07/07/2021 15:46 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
@@ -5990,7 +5997,7 @@
       <c r="S66"/>
       <c r="T66" s="1" t="inlineStr">
         <is>
-          <t>07/07/2021 15:49 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>07/07/2021 15:48 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -5998,7 +6005,7 @@
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>I2107-067758</t>
+          <t>I2107-067721</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
@@ -6053,7 +6060,7 @@
         </is>
       </c>
       <c r="M67" s="3" t="n">
-        <v>44384.65888888889</v>
+        <v>44384.65788194445</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -6063,91 +6070,173 @@
       </c>
       <c r="R67" s="1" t="inlineStr">
         <is>
+          <t>07/07/2021 15:47 Atualizado pelo Sistema: 
+Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
+Telefone: (62) 32212022
+07/07/...</t>
+        </is>
+      </c>
+      <c r="S67"/>
+      <c r="T67" s="1" t="inlineStr">
+        <is>
+          <t>07/07/2021 15:49 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+&lt;img src='/icons/progresstrail.mail/16' st...</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>I2107-067758</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>SHEILA LUIZA CAVALCANTE</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>Aguardando atendimento</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="inlineStr">
+        <is>
+          <t>5004 - PAC: 00 - SICOOB UNICENTRO BRASILEIRA</t>
+        </is>
+      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6" t="inlineStr">
+        <is>
+          <t>2015. Planos Expa.Plane Estrat</t>
+        </is>
+      </c>
+      <c r="J68" s="6" t="inlineStr">
+        <is>
+          <t>Plano de Expansão</t>
+        </is>
+      </c>
+      <c r="K68" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L68" s="6" t="inlineStr">
+        <is>
+          <t>Registrado</t>
+        </is>
+      </c>
+      <c r="M68" s="3" t="n">
+        <v>44384.65888888889</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R68" s="1" t="inlineStr">
+        <is>
           <t>07/07/2021 15:48 Atualizado pelo Sistema: 
 Cooperativa: 5004 - PAC: 00 - UNICENTRO BRASILEIRA
 Telefone: (62) 32212022
 07/07/...</t>
         </is>
       </c>
-      <c r="S67"/>
-      <c r="T67" s="1" t="inlineStr">
+      <c r="S68"/>
+      <c r="T68" s="1" t="inlineStr">
         <is>
           <t>07/07/2021 15:50 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="6" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
         <is>
           <t>I2105-101060</t>
         </is>
       </c>
-      <c r="B68" s="6" t="inlineStr">
+      <c r="B69" s="6" t="inlineStr">
         <is>
           <t>Thiago Rodrigues dos Reis</t>
         </is>
       </c>
-      <c r="C68" s="6" t="inlineStr">
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D68" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E68" s="6" t="inlineStr">
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E69" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F68" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" s="6" t="inlineStr">
+      <c r="F69" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J68" s="6" t="inlineStr">
+      <c r="J69" s="6" t="inlineStr">
         <is>
           <t>PAD</t>
         </is>
       </c>
-      <c r="K68" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L68" s="6" t="inlineStr">
+      <c r="K69" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L69" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M68" s="3" t="n">
+      <c r="M69" s="3" t="n">
         <v>44328.47324074074</v>
       </c>
-      <c r="N68" s="3" t="n">
+      <c r="N69" s="3" t="n">
         <v>44328.47708333333</v>
       </c>
-      <c r="O68" s="3" t="n">
+      <c r="O69" s="3" t="n">
         <v>44334.49236111111</v>
       </c>
-      <c r="P68"/>
-      <c r="Q68" s="5" t="n">
+      <c r="P69"/>
+      <c r="Q69" s="5" t="n">
         <v>0.004166666666666667</v>
       </c>
-      <c r="R68" s="1" t="inlineStr">
+      <c r="R69" s="1" t="inlineStr">
         <is>
           <t>12/05/2021 11:21 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -6155,91 +6244,91 @@
 12/05/2021 11:21...</t>
         </is>
       </c>
-      <c r="S68" s="1" t="inlineStr">
+      <c r="S69" s="1" t="inlineStr">
         <is>
           <t>12/05/2021 11:46 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="T68" s="1" t="inlineStr">
+      <c r="T69" s="1" t="inlineStr">
         <is>
           <t>12/05/2021 11:46 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="6" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
         <is>
           <t>I2105-186623</t>
         </is>
       </c>
-      <c r="B69" s="6" t="inlineStr">
+      <c r="B70" s="6" t="inlineStr">
         <is>
           <t>Thiago Rodrigues dos Reis</t>
         </is>
       </c>
-      <c r="C69" s="6" t="inlineStr">
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D69" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="E69" s="6" t="inlineStr">
+      <c r="D70" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="E70" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F69" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" s="6" t="inlineStr">
+      <c r="F70" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J69" s="6" t="inlineStr">
+      <c r="J70" s="6" t="inlineStr">
         <is>
           <t>PAD</t>
         </is>
       </c>
-      <c r="K69" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L69" s="6" t="inlineStr">
+      <c r="K70" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L70" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M69" s="3" t="n">
+      <c r="M70" s="3" t="n">
         <v>44336.61927083333</v>
       </c>
-      <c r="N69" s="3" t="n">
+      <c r="N70" s="3" t="n">
         <v>44336.70208333333</v>
       </c>
-      <c r="O69" s="3" t="n">
+      <c r="O70" s="3" t="n">
         <v>44342.70208333333</v>
       </c>
-      <c r="P69"/>
-      <c r="Q69" s="5" t="n">
+      <c r="P70"/>
+      <c r="Q70" s="5" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="R69" s="1" t="inlineStr">
+      <c r="R70" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 14:51 Atualizado pelo Sistema: 
 Cooperativa: 2015 - PAC: 00 - SICOOBUNI
@@ -6247,91 +6336,91 @@
 20/05/2021 14:51 Th...</t>
         </is>
       </c>
-      <c r="S69" s="1" t="inlineStr">
+      <c r="S70" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 16:51 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezado Thiago!...</t>
         </is>
       </c>
-      <c r="T69" s="1" t="inlineStr">
+      <c r="T70" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 16:51 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="6" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
         <is>
           <t>I2105-006413</t>
         </is>
       </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="B71" s="6" t="inlineStr">
         <is>
           <t>VINICIUS SILVA BARBOSA</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D70" s="6" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>3246 - PAC: 00 - SICOOB CREDSEGURO</t>
         </is>
       </c>
-      <c r="E70" s="6" t="inlineStr">
+      <c r="E71" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" s="6" t="inlineStr">
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J70" s="6" t="inlineStr">
+      <c r="J71" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K70" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L70" s="6" t="inlineStr">
+      <c r="K71" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L71" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M70" s="3" t="n">
+      <c r="M71" s="3" t="n">
         <v>44319.45297453704</v>
       </c>
-      <c r="N70" s="3" t="n">
+      <c r="N71" s="3" t="n">
         <v>44336.402083333334</v>
       </c>
-      <c r="O70" s="3" t="n">
+      <c r="O71" s="3" t="n">
         <v>44342.402083333334</v>
       </c>
-      <c r="P70"/>
-      <c r="Q70" s="5" t="n">
+      <c r="P71"/>
+      <c r="Q71" s="5" t="n">
         <v>4.824305555555555</v>
       </c>
-      <c r="R70" s="1" t="inlineStr">
+      <c r="R71" s="1" t="inlineStr">
         <is>
           <t>03/05/2021 10:52 Atualizado pelo Sistema: 
 Cooperativa: 3246 - PAC: 00 - SICOOB CREDSEGURO - GO
@@ -6339,91 +6428,91 @@
 03/...</t>
         </is>
       </c>
-      <c r="S70" s="1" t="inlineStr">
+      <c r="S71" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 09:39 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)!...</t>
         </is>
       </c>
-      <c r="T70" s="1" t="inlineStr">
+      <c r="T71" s="1" t="inlineStr">
         <is>
           <t>20/05/2021 09:39 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.attachment/16' style='vertical-align: text-bo...</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="6" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
         <is>
           <t>I2105-080196</t>
         </is>
       </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="B72" s="6" t="inlineStr">
         <is>
           <t>VINICIUS SILVA BARBOSA</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>3246 - PAC: 00 - SICOOB CREDSEGURO</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="inlineStr">
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J71" s="6" t="inlineStr">
+      <c r="J72" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K71" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L71" s="6" t="inlineStr">
+      <c r="K72" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L72" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M71" s="3" t="n">
+      <c r="M72" s="3" t="n">
         <v>44326.72020833333</v>
       </c>
-      <c r="N71" s="3" t="n">
+      <c r="N72" s="3" t="n">
         <v>44334.44861111111</v>
       </c>
-      <c r="O71" s="3" t="n">
+      <c r="O72" s="3" t="n">
         <v>44340.44930555556</v>
       </c>
-      <c r="P71"/>
-      <c r="Q71" s="5" t="n">
+      <c r="P72"/>
+      <c r="Q72" s="5" t="n">
         <v>1.9784722222222222</v>
       </c>
-      <c r="R71" s="1" t="inlineStr">
+      <c r="R72" s="1" t="inlineStr">
         <is>
           <t>10/05/2021 17:17 Atualizado pelo Sistema: 
 Cooperativa: 3246 - PAC: 00 - SICOOB CREDSEGURO - GO
@@ -6431,82 +6520,82 @@
 10/0...</t>
         </is>
       </c>
-      <c r="S71" s="1" t="inlineStr">
+      <c r="S72" s="1" t="inlineStr">
         <is>
           <t>18/05/2021 10:46 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! Es...</t>
         </is>
       </c>
-      <c r="T71"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="6" t="inlineStr">
+      <c r="T72"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
         <is>
           <t>I2107-116604</t>
         </is>
       </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="B73" s="6" t="inlineStr">
         <is>
           <t>VINICIUS SILVA BARBOSA</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>Aguardando atendimento</t>
         </is>
       </c>
-      <c r="D72" s="6" t="inlineStr">
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>3246 - PAC: 00 - SICOOB CREDSEGURO</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
+      <c r="E73" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F72" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
         <v>0</v>
       </c>
-      <c r="H72" t="b">
+      <c r="H73" t="b">
         <v>0</v>
       </c>
-      <c r="I72" s="6" t="inlineStr">
+      <c r="I73" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J72" s="6" t="inlineStr">
+      <c r="J73" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K72" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L72" s="6" t="inlineStr">
+      <c r="K73" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L73" s="6" t="inlineStr">
         <is>
           <t>Registrado</t>
         </is>
       </c>
-      <c r="M72" s="3" t="n">
+      <c r="M73" s="3" t="n">
         <v>44390.49599537037</v>
       </c>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72" s="5" t="n">
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73" s="5" t="n">
         <v>0.0</v>
       </c>
-      <c r="R72" s="1" t="inlineStr">
+      <c r="R73" s="1" t="inlineStr">
         <is>
           <t>13/07/2021 11:54 Atualizado pelo Sistema: 
 Cooperativa: 3246 - PAC: 00 - SICOOB CREDSEGURO - GO
@@ -6514,80 +6603,80 @@
 13/0...</t>
         </is>
       </c>
-      <c r="S72"/>
-      <c r="T72"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="6" t="inlineStr">
+      <c r="S73"/>
+      <c r="T73"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
         <is>
           <t>I2105-050857</t>
         </is>
       </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="B74" s="6" t="inlineStr">
         <is>
           <t>VITOR HUGO FERREIRA DA SILVA</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>3064 - PAC: 00 - SICOOB GOIÂNIA</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" s="6" t="inlineStr">
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J73" s="6" t="inlineStr">
+      <c r="J74" s="6" t="inlineStr">
         <is>
           <t>Sisbr Analítico</t>
         </is>
       </c>
-      <c r="K73" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L73" s="6" t="inlineStr">
+      <c r="K74" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L74" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M73" s="3" t="n">
+      <c r="M74" s="3" t="n">
         <v>44322.628854166665</v>
       </c>
-      <c r="N73" s="3" t="n">
+      <c r="N74" s="3" t="n">
         <v>44322.70347222222</v>
       </c>
-      <c r="O73" s="3" t="n">
+      <c r="O74" s="3" t="n">
         <v>44328.70416666667</v>
       </c>
-      <c r="P73"/>
-      <c r="Q73" s="5" t="n">
+      <c r="P74"/>
+      <c r="Q74" s="5" t="n">
         <v>0.075</v>
       </c>
-      <c r="R73" s="1" t="inlineStr">
+      <c r="R74" s="1" t="inlineStr">
         <is>
           <t>06/05/2021 15:05 Atualizado pelo Sistema: 
 Cooperativa: 3064 - PAC: 00 - SICOOB GOIÂNIA
@@ -6595,91 +6684,91 @@
 06/05/2021 15...</t>
         </is>
       </c>
-      <c r="S73" s="1" t="inlineStr">
+      <c r="S74" s="1" t="inlineStr">
         <is>
           <t>06/05/2021 16:53 PAULO HENRIQUE BRASIL RIBEIRO: 
 ME - Planejamento e Desenvolvimento - Sicoob Uni
 Boa tarde, prezados(as)! E...</t>
         </is>
       </c>
-      <c r="T73" s="1" t="inlineStr">
+      <c r="T74" s="1" t="inlineStr">
         <is>
           <t>06/05/2021 16:53 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="6" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
         <is>
           <t>I2106-158843</t>
         </is>
       </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="B75" s="6" t="inlineStr">
         <is>
           <t>VITÓRIA KAROLYNE PEREIRA DOS SANTOS</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>Finalizado</t>
         </is>
       </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>3054 - PAC: 00 - SICOOB CREDI-RURAL</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E75" s="6" t="inlineStr">
         <is>
           <t>PAULO HENRIQUE BRASIL RIBEIRO</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6" t="inlineStr">
+      <c r="F75" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6" t="inlineStr">
         <is>
           <t>2015. Inteligência de Negócios</t>
         </is>
       </c>
-      <c r="J74" s="6" t="inlineStr">
+      <c r="J75" s="6" t="inlineStr">
         <is>
           <t>Sobras</t>
         </is>
       </c>
-      <c r="K74" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L74" s="6" t="inlineStr">
+      <c r="K75" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L75" s="6" t="inlineStr">
         <is>
           <t>Fechado</t>
         </is>
       </c>
-      <c r="M74" s="3" t="n">
+      <c r="M75" s="3" t="n">
         <v>44364.5080787037</v>
       </c>
-      <c r="N74" s="3" t="n">
+      <c r="N75" s="3" t="n">
         <v>44372.46805555555</v>
       </c>
-      <c r="O74" s="3" t="n">
+      <c r="O75" s="3" t="n">
         <v>44378.46875</v>
       </c>
-      <c r="P74"/>
-      <c r="Q74" s="5" t="n">
+      <c r="P75"/>
+      <c r="Q75" s="5" t="n">
         <v>2.2104166666666667</v>
       </c>
-      <c r="R74" s="1" t="inlineStr">
+      <c r="R75" s="1" t="inlineStr">
         <is>
           <t>17/06/2021 12:11 Atualizado pelo Sistema: 
 Cooperativa: 3054 - PAC: 00 - SICOOB CREDI-RURAL
@@ -6687,106 +6776,24 @@
 17/06/202...</t>
         </is>
       </c>
-      <c r="S74" s="1" t="inlineStr">
+      <c r="S75" s="1" t="inlineStr">
         <is>
           <t>25/06/2021 11:14 PAULO HENRIQUE BRASIL RIBEIRO: 
 Bom dia, Vitória!
 - Essa ação podemos fazer por rateio/produtos selecionand...</t>
         </is>
       </c>
-      <c r="T74" s="1" t="inlineStr">
+      <c r="T75" s="1" t="inlineStr">
         <is>
           <t>25/06/2021 11:14 PAULO HENRIQUE BRASIL RIBEIRO: 
 &lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bottom'...</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="6" t="inlineStr">
-        <is>
-          <t>I2106-018036</t>
-        </is>
-      </c>
-      <c r="B75" s="6" t="inlineStr">
-        <is>
-          <t>WALESKA DOS REIS FREITAS</t>
-        </is>
-      </c>
-      <c r="C75" s="6" t="inlineStr">
-        <is>
-          <t>Em atendimento</t>
-        </is>
-      </c>
-      <c r="D75" s="6" t="inlineStr">
-        <is>
-          <t>3300 - PAC: 00 - SICOOB LOJICRED</t>
-        </is>
-      </c>
-      <c r="E75" s="6" t="inlineStr">
-        <is>
-          <t>Kaique Ferreira Henrique de Souza</t>
-        </is>
-      </c>
-      <c r="F75" s="6" t="inlineStr">
-        <is>
-          <t>2015 - PAC: 00 - SICOOB UNI</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6" t="inlineStr">
-        <is>
-          <t>2015. Planos Expa.Plane Estrat</t>
-        </is>
-      </c>
-      <c r="J75" s="6" t="inlineStr">
-        <is>
-          <t>Estudos Estratégicos</t>
-        </is>
-      </c>
-      <c r="K75" s="6" t="inlineStr">
-        <is>
-          <t>2015 - Desenvolvimento Estratégico</t>
-        </is>
-      </c>
-      <c r="L75" s="6" t="inlineStr">
-        <is>
-          <t>Registrado</t>
-        </is>
-      </c>
-      <c r="M75" s="3" t="n">
-        <v>44349.437430555554</v>
-      </c>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R75" s="1" t="inlineStr">
-        <is>
-          <t>02/06/2021 10:29 Atualizado pelo Sistema: 
-Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
-Telefone: (62)32142800
-02/06/2021 1...</t>
-        </is>
-      </c>
-      <c r="S75"/>
-      <c r="T75" s="1" t="inlineStr">
-        <is>
-          <t>02/06/2021 10:32 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
-&lt;img src='/icons/progresstrail.mail/16' st...</t>
-        </is>
-      </c>
-    </row>
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>I2106-018100</t>
+          <t>I2106-018036</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
@@ -6841,7 +6848,7 @@
         </is>
       </c>
       <c r="M76" s="3" t="n">
-        <v>44349.43934027778</v>
+        <v>44349.437430555554</v>
       </c>
       <c r="N76"/>
       <c r="O76"/>
@@ -6851,7 +6858,7 @@
       </c>
       <c r="R76" s="1" t="inlineStr">
         <is>
-          <t>02/06/2021 10:32 Atualizado pelo Sistema: 
+          <t>02/06/2021 10:29 Atualizado pelo Sistema: 
 Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
 Telefone: (62)32142800
 02/06/2021 1...</t>
@@ -6860,7 +6867,7 @@
       <c r="S76"/>
       <c r="T76" s="1" t="inlineStr">
         <is>
-          <t>02/06/2021 10:35 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>02/06/2021 10:32 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -6868,7 +6875,7 @@
     <row r="77">
       <c r="A77" s="6" t="inlineStr">
         <is>
-          <t>I2106-018124</t>
+          <t>I2106-018100</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
@@ -6923,7 +6930,7 @@
         </is>
       </c>
       <c r="M77" s="3" t="n">
-        <v>44349.43997685185</v>
+        <v>44349.43934027778</v>
       </c>
       <c r="N77"/>
       <c r="O77"/>
@@ -6933,7 +6940,7 @@
       </c>
       <c r="R77" s="1" t="inlineStr">
         <is>
-          <t>02/06/2021 10:33 Atualizado pelo Sistema: 
+          <t>02/06/2021 10:32 Atualizado pelo Sistema: 
 Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
 Telefone: (62)32142800
 02/06/2021 1...</t>
@@ -6942,7 +6949,7 @@
       <c r="S77"/>
       <c r="T77" s="1" t="inlineStr">
         <is>
-          <t>02/06/2021 10:36 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+          <t>02/06/2021 10:35 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>
         </is>
       </c>
@@ -6950,7 +6957,7 @@
     <row r="78">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>I2106-018164</t>
+          <t>I2106-018124</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
@@ -7005,7 +7012,7 @@
         </is>
       </c>
       <c r="M78" s="3" t="n">
-        <v>44349.44122685185</v>
+        <v>44349.43997685185</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
@@ -7015,14 +7022,96 @@
       </c>
       <c r="R78" s="1" t="inlineStr">
         <is>
+          <t>02/06/2021 10:33 Atualizado pelo Sistema: 
+Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
+Telefone: (62)32142800
+02/06/2021 1...</t>
+        </is>
+      </c>
+      <c r="S78"/>
+      <c r="T78" s="1" t="inlineStr">
+        <is>
+          <t>02/06/2021 10:36 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+&lt;img src='/icons/progresstrail.mail/16' st...</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>I2106-018164</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>WALESKA DOS REIS FREITAS</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>Em atendimento</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>3300 - PAC: 00 - SICOOB LOJICRED</t>
+        </is>
+      </c>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>Kaique Ferreira Henrique de Souza</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6" t="inlineStr">
+        <is>
+          <t>2015. Planos Expa.Plane Estrat</t>
+        </is>
+      </c>
+      <c r="J79" s="6" t="inlineStr">
+        <is>
+          <t>Estudos Estratégicos</t>
+        </is>
+      </c>
+      <c r="K79" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L79" s="6" t="inlineStr">
+        <is>
+          <t>Registrado</t>
+        </is>
+      </c>
+      <c r="M79" s="3" t="n">
+        <v>44349.44122685185</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R79" s="1" t="inlineStr">
+        <is>
           <t>02/06/2021 10:35 Atualizado pelo Sistema: 
 Cooperativa: 3300 - PAC: 00 - SICOOB LOJICRED
 Telefone: (62)32142800
 02/06/2021 1...</t>
         </is>
       </c>
-      <c r="S78"/>
-      <c r="T78" s="1" t="inlineStr">
+      <c r="S79"/>
+      <c r="T79" s="1" t="inlineStr">
         <is>
           <t>02/06/2021 10:37 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
 &lt;img src='/icons/progresstrail.mail/16' st...</t>

--- a/2015_-_Desenvolvimento_Estrate55.xlsx
+++ b/2015_-_Desenvolvimento_Estrate55.xlsx
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>Em atendimento</t>
+          <t>Aguardando atendimento externo</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="L43" s="6" t="inlineStr">
         <is>
-          <t>Registrado</t>
+          <t>Respondido</t>
         </is>
       </c>
       <c r="M43" s="3" t="n">
@@ -4078,11 +4078,17 @@
 09/07/20...</t>
         </is>
       </c>
-      <c r="T43"/>
+      <c r="T43" s="1" t="inlineStr">
+        <is>
+          <t>19/07/2021 11:26 Kaique Ferreira Henrique de Souza: 
+ME - Planejamento e Desenvolvimento - Sicoob Uni
+Prezados(as), boa tarde...</t>
+        </is>
+      </c>
       <c r="U43" s="1" t="inlineStr">
         <is>
-          <t>09/07/2021 17:38 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
-&lt;img src='/icons/progresstrail.mail/16' st...</t>
+          <t>19/07/2021 11:26 Kaique Ferreira Henrique de Souza: 
+&lt;img src='/icons/progresstrail.mail/16' style='vertical-align: text-bott...</t>
         </is>
       </c>
     </row>
@@ -7788,6 +7794,93 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>I2107-176424</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>Marcelo Da Silva</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>Aguardando atendimento</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>5145 - PAC:00 - MEDCRED RIBEIRÃO PRETO</t>
+        </is>
+      </c>
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="F83" s="6" t="inlineStr">
+        <is>
+          <t>2015 - PAC: 00 - SICOOB UNI</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="6" t="inlineStr">
+        <is>
+          <t>2015. Inteligência de Negócios</t>
+        </is>
+      </c>
+      <c r="J83" s="6" t="inlineStr">
+        <is>
+          <t>Sobras</t>
+        </is>
+      </c>
+      <c r="K83" s="6" t="inlineStr">
+        <is>
+          <t>2015 - Desenvolvimento Estratégico</t>
+        </is>
+      </c>
+      <c r="L83" s="6" t="inlineStr">
+        <is>
+          <t>Registrado</t>
+        </is>
+      </c>
+      <c r="M83" s="3" t="n">
+        <v>44396.741006944445</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R83" s="6" t="inlineStr">
+        <is>
+          <t>Central - 2015 - Central Sicoob Uni</t>
+        </is>
+      </c>
+      <c r="S83" s="1" t="inlineStr">
+        <is>
+          <t>19/07/2021 17:47 Atualizado pelo Sistema: 
+Cooperativa: 5145 - PAC:00 - MEDCRED DE RIBEIRÃO PRETO
+Telefone: 16 36256900
+19/0...</t>
+        </is>
+      </c>
+      <c r="T83"/>
+      <c r="U83" s="1" t="inlineStr">
+        <is>
+          <t>19/07/2021 17:48 Portal de Servi&amp;ccedil;os do CCS &amp;lt;no-reply@sicoob.com.br&amp;gt;: 
+&lt;img src='/icons/progresstrail.mail/16' st...</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9"/>
